--- a/Program/Other/LM076_底稿_B042金融機構承作「購地貸款」統計表.xlsx
+++ b/Program/Other/LM076_底稿_B042金融機構承作「購地貸款」統計表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.8\itxDoc\itxWrite\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_REPO_SKL\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA09BF90-3E86-43B8-AC6F-F79F52A64AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84AE264-764B-410C-BB4F-BC09EEF8D0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1799,84 +1799,84 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="36" fillId="30" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="36" fillId="30" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2274,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF65552-3C83-45D0-BB5D-33C0B60BEEF0}">
-  <dimension ref="A1:BQ25"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -2290,7 +2290,7 @@
     <col min="6" max="6" width="20.33203125" style="12" customWidth="1"/>
     <col min="7" max="7" width="19.5546875" style="12" customWidth="1"/>
     <col min="8" max="9" width="19.33203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="37" customWidth="1"/>
     <col min="11" max="16" width="13.77734375" style="12" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="7.33203125" style="12" hidden="1" customWidth="1"/>
     <col min="18" max="20" width="13.77734375" style="12" hidden="1" customWidth="1"/>
@@ -2304,16 +2304,16 @@
         <f>IF(COUNTBLANK(I7:I14)=8,"","本表有誤")</f>
         <v/>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="45"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="37"/>
       <c r="BG1" s="7" t="e">
         <f>SUBSTITUTE(SUBSTITUTE(#REF!," ",""),"　","")</f>
         <v>#REF!</v>
@@ -2351,178 +2351,178 @@
       </c>
     </row>
     <row r="2" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="C2" s="56" t="s">
+      <c r="A2" s="38"/>
+      <c r="C2" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="55"/>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="55"/>
-      <c r="BA2" s="55"/>
-      <c r="BB2" s="55"/>
-      <c r="BC2" s="55"/>
-      <c r="BD2" s="55"/>
-      <c r="BE2" s="55"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="55"/>
-      <c r="BH2" s="55"/>
-      <c r="BI2" s="55"/>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="55"/>
-      <c r="BL2" s="55"/>
-      <c r="BM2" s="55"/>
-      <c r="BN2" s="55"/>
-      <c r="BO2" s="55"/>
-      <c r="BP2" s="55"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="38"/>
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="38"/>
+      <c r="BD2" s="38"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="38"/>
+      <c r="BG2" s="38"/>
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="38"/>
+      <c r="BN2" s="38"/>
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="38"/>
     </row>
     <row r="3" spans="1:68" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="C3" s="57" t="s">
+      <c r="A3" s="38"/>
+      <c r="C3" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="55"/>
-      <c r="AZ3" s="55"/>
-      <c r="BA3" s="55"/>
-      <c r="BB3" s="55"/>
-      <c r="BC3" s="55"/>
-      <c r="BD3" s="55"/>
-      <c r="BE3" s="55"/>
-      <c r="BF3" s="55"/>
-      <c r="BG3" s="55"/>
-      <c r="BH3" s="55"/>
-      <c r="BI3" s="55"/>
-      <c r="BJ3" s="55"/>
-      <c r="BK3" s="55"/>
-      <c r="BL3" s="55"/>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="55"/>
-      <c r="BO3" s="55"/>
-      <c r="BP3" s="55"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="38"/>
+      <c r="BA3" s="38"/>
+      <c r="BB3" s="38"/>
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="38"/>
+      <c r="BE3" s="38"/>
+      <c r="BF3" s="38"/>
+      <c r="BG3" s="38"/>
+      <c r="BH3" s="38"/>
+      <c r="BI3" s="38"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="38"/>
+      <c r="BL3" s="38"/>
+      <c r="BM3" s="38"/>
+      <c r="BN3" s="38"/>
+      <c r="BO3" s="38"/>
+      <c r="BP3" s="38"/>
     </row>
     <row r="4" spans="1:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="53" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="53" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="53" t="s">
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="52"/>
-      <c r="P5" s="54"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="1:68" s="13" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="44" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="36" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -2531,7 +2531,7 @@
       <c r="E6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="20" t="s">
@@ -2540,11 +2540,11 @@
       <c r="H6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="44" t="s">
+      <c r="J6" s="51"/>
+      <c r="K6" s="36" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="14" t="s">
@@ -2553,7 +2553,7 @@
       <c r="M6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="36" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="14" t="s">
@@ -2581,41 +2581,41 @@
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="58"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="33"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
-      <c r="I7" s="49" t="str">
+      <c r="I7" s="46" t="str">
         <f>$K7&amp;$L7&amp;$M7&amp;$N7&amp;$O7&amp;$P7</f>
         <v/>
       </c>
-      <c r="J7" s="50"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="15" t="str">
-        <f>IF(C7="","",IF(OR(C7&lt;0,C7&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C7&lt;&gt;ROUND(C7,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <f t="shared" ref="K7:K14" si="0">IF(C7="","",IF(OR(C7&lt;0,C7&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C7&lt;&gt;ROUND(C7,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
       <c r="L7" s="15" t="str">
-        <f>IF(D7="","",IF(D7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D7&lt;&gt;ROUND(D7,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" ref="L7:L14" si="1">IF(D7="","",IF(D7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D7&lt;&gt;ROUND(D7,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
       <c r="M7" s="15" t="str">
-        <f>IF(E7="","",IF(E7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E7&lt;&gt;ROUND(E7,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <f t="shared" ref="M7:M14" si="2">IF(E7="","",IF(E7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E7&lt;&gt;ROUND(E7,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
       <c r="N7" s="15" t="str">
-        <f>IF(F7="","",IF(OR(F7&lt;0,F7&gt;99999999.99),"110.9.24起申請案件[撥款金額]須為小於9位之正數,",IF(F7&lt;&gt;ROUND(F7,2),"110.9.24起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <f t="shared" ref="N7:N14" si="3">IF(F7="","",IF(OR(F7&lt;0,F7&gt;99999999.99),"110.9.24起申請案件[撥款金額]須為小於9位之正數,",IF(F7&lt;&gt;ROUND(F7,2),"110.9.24起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
       <c r="O7" s="15" t="str">
-        <f>IF(G7="","",IF(G7&gt;99.99,"110.9.24起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G7&lt;&gt;ROUND(G7,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" ref="O7:O14" si="4">IF(G7="","",IF(G7&gt;99.99,"110.9.24起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G7&lt;&gt;ROUND(G7,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
       <c r="P7" s="15" t="str">
-        <f>IF(H7="","",IF(H7&gt;99.99,"110.9.24起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H7&lt;&gt;ROUND(H7,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" ref="P7:P14" si="5">IF(H7="","",IF(H7&gt;99.99,"110.9.24起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H7&lt;&gt;ROUND(H7,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
       <c r="S7" s="16" t="str">
-        <f>IF(L7="",IF(D7&gt;65,"加權平均貸款成數最高為6.5成,",""),"")</f>
+        <f t="shared" ref="S7:S13" si="6">IF(L7="",IF(D7&gt;65,"加權平均貸款成數最高為6.5成,",""),"")</f>
         <v/>
       </c>
     </row>
@@ -2628,41 +2628,41 @@
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34"/>
-      <c r="E8" s="58"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="33"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
-      <c r="I8" s="49" t="str">
-        <f t="shared" ref="I8:I14" si="0">$K8&amp;$L8&amp;$M8&amp;$N8&amp;$O8&amp;$P8</f>
-        <v/>
-      </c>
-      <c r="J8" s="50"/>
+      <c r="I8" s="46" t="str">
+        <f t="shared" ref="I8:I14" si="7">$K8&amp;$L8&amp;$M8&amp;$N8&amp;$O8&amp;$P8</f>
+        <v/>
+      </c>
+      <c r="J8" s="47"/>
       <c r="K8" s="15" t="str">
-        <f>IF(C8="","",IF(OR(C8&lt;0,C8&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C8&lt;&gt;ROUND(C8,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L8" s="15" t="str">
-        <f>IF(D8="","",IF(D8&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D8&lt;&gt;ROUND(D8,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M8" s="15" t="str">
-        <f>IF(E8="","",IF(E8&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E8&lt;&gt;ROUND(E8,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N8" s="15" t="str">
-        <f>IF(F8="","",IF(OR(F8&lt;0,F8&gt;99999999.99),"110.9.24起申請案件[撥款金額]須為小於9位之正數,",IF(F8&lt;&gt;ROUND(F8,2),"110.9.24起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O8" s="15" t="str">
-        <f>IF(G8="","",IF(G8&gt;99.99,"110.9.24起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G8&lt;&gt;ROUND(G8,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P8" s="15" t="str">
-        <f>IF(H8="","",IF(H8&gt;99.99,"110.9.24起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H8&lt;&gt;ROUND(H8,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S8" s="16" t="str">
-        <f>IF(L8="",IF(D8&gt;65,"加權平均貸款成數最高為6.5成,",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2675,41 +2675,41 @@
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="34"/>
-      <c r="E9" s="58"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="33"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
-      <c r="I9" s="49" t="str">
+      <c r="I9" s="46" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="15" t="str">
-        <f>IF(C9="","",IF(OR(C9&lt;0,C9&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C9&lt;&gt;ROUND(C9,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
-        <v/>
-      </c>
       <c r="L9" s="15" t="str">
-        <f>IF(D9="","",IF(D9&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D9&lt;&gt;ROUND(D9,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M9" s="15" t="str">
-        <f>IF(E9="","",IF(E9&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E9&lt;&gt;ROUND(E9,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N9" s="15" t="str">
-        <f>IF(F9="","",IF(OR(F9&lt;0,F9&gt;99999999.99),"110.9.24起申請案件[撥款金額]須為小於9位之正數,",IF(F9&lt;&gt;ROUND(F9,2),"110.9.24起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O9" s="15" t="str">
-        <f>IF(G9="","",IF(G9&gt;99.99,"110.9.24起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G9&lt;&gt;ROUND(G9,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P9" s="15" t="str">
-        <f>IF(H9="","",IF(H9&gt;99.99,"110.9.24起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H9&lt;&gt;ROUND(H9,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S9" s="16" t="str">
-        <f>IF(L9="",IF(D9&gt;65,"加權平均貸款成數最高為6.5成,",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2722,41 +2722,41 @@
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="58"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
-      <c r="I10" s="49" t="str">
+      <c r="I10" s="46" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J10" s="47"/>
+      <c r="K10" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="15" t="str">
-        <f>IF(C10="","",IF(OR(C10&lt;0,C10&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C10&lt;&gt;ROUND(C10,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
-        <v/>
-      </c>
       <c r="L10" s="15" t="str">
-        <f>IF(D10="","",IF(D10&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D10&lt;&gt;ROUND(D10,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M10" s="15" t="str">
-        <f>IF(E10="","",IF(E10&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E10&lt;&gt;ROUND(E10,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N10" s="15" t="str">
-        <f>IF(F10="","",IF(OR(F10&lt;0,F10&gt;99999999.99),"110.9.24起申請案件[撥款金額]須為小於9位之正數,",IF(F10&lt;&gt;ROUND(F10,2),"110.9.24起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O10" s="15" t="str">
-        <f>IF(G10="","",IF(G10&gt;99.99,"110.9.24起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G10&lt;&gt;ROUND(G10,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P10" s="15" t="str">
-        <f>IF(H10="","",IF(H10&gt;99.99,"110.9.24起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H10&lt;&gt;ROUND(H10,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S10" s="16" t="str">
-        <f>IF(L10="",IF(D10&gt;65,"加權平均貸款成數最高為6.5成,",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2769,41 +2769,41 @@
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="34"/>
-      <c r="E11" s="58"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="33"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
-      <c r="I11" s="49" t="str">
+      <c r="I11" s="46" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J11" s="47"/>
+      <c r="K11" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="15" t="str">
-        <f>IF(C11="","",IF(OR(C11&lt;0,C11&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C11&lt;&gt;ROUND(C11,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
-        <v/>
-      </c>
       <c r="L11" s="15" t="str">
-        <f>IF(D11="","",IF(D11&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D11&lt;&gt;ROUND(D11,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M11" s="15" t="str">
-        <f>IF(E11="","",IF(E11&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E11&lt;&gt;ROUND(E11,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N11" s="15" t="str">
-        <f>IF(F11="","",IF(OR(F11&lt;0,F11&gt;99999999.99),"110.9.24起申請案件[撥款金額]須為小於9位之正數,",IF(F11&lt;&gt;ROUND(F11,2),"110.9.24起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O11" s="15" t="str">
-        <f>IF(G11="","",IF(G11&gt;99.99,"110.9.24起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G11&lt;&gt;ROUND(G11,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P11" s="15" t="str">
-        <f>IF(H11="","",IF(H11&gt;99.99,"110.9.24起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H11&lt;&gt;ROUND(H11,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S11" s="16" t="str">
-        <f>IF(L11="",IF(D11&gt;65,"加權平均貸款成數最高為6.5成,",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2816,41 +2816,41 @@
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="34"/>
-      <c r="E12" s="58"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="33"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
-      <c r="I12" s="49" t="str">
+      <c r="I12" s="46" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J12" s="47"/>
+      <c r="K12" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="15" t="str">
-        <f>IF(C12="","",IF(OR(C12&lt;0,C12&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C12&lt;&gt;ROUND(C12,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
-        <v/>
-      </c>
       <c r="L12" s="15" t="str">
-        <f>IF(D12="","",IF(D12&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D12&lt;&gt;ROUND(D12,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M12" s="15" t="str">
-        <f>IF(E12="","",IF(E12&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E12&lt;&gt;ROUND(E12,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N12" s="15" t="str">
-        <f>IF(F12="","",IF(OR(F12&lt;0,F12&gt;99999999.99),"110.9.24起申請案件[撥款金額]須為小於9位之正數,",IF(F12&lt;&gt;ROUND(F12,2),"110.9.24起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O12" s="15" t="str">
-        <f>IF(G12="","",IF(G12&gt;99.99,"110.9.24起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G12&lt;&gt;ROUND(G12,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P12" s="15" t="str">
-        <f>IF(H12="","",IF(H12&gt;99.99,"110.9.24起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H12&lt;&gt;ROUND(H12,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S12" s="16" t="str">
-        <f>IF(L12="",IF(D12&gt;65,"加權平均貸款成數最高為6.5成,",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2863,41 +2863,41 @@
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="58"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
-      <c r="I13" s="49" t="str">
+      <c r="I13" s="46" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J13" s="47"/>
+      <c r="K13" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="15" t="str">
-        <f>IF(C13="","",IF(OR(C13&lt;0,C13&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C13&lt;&gt;ROUND(C13,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
-        <v/>
-      </c>
       <c r="L13" s="15" t="str">
-        <f>IF(D13="","",IF(D13&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D13&lt;&gt;ROUND(D13,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M13" s="15" t="str">
-        <f>IF(E13="","",IF(E13&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E13&lt;&gt;ROUND(E13,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N13" s="15" t="str">
-        <f>IF(F13="","",IF(OR(F13&lt;0,F13&gt;99999999.99),"110.9.24起申請案件[撥款金額]須為小於9位之正數,",IF(F13&lt;&gt;ROUND(F13,2),"110.9.24起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O13" s="15" t="str">
-        <f>IF(G13="","",IF(G13&gt;99.99,"110.9.24起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G13&lt;&gt;ROUND(G13,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P13" s="15" t="str">
-        <f>IF(H13="","",IF(H13&gt;99.99,"110.9.24起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H13&lt;&gt;ROUND(H13,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S13" s="16" t="str">
-        <f>IF(L13="",IF(D13&gt;65,"加權平均貸款成數最高為6.5成,",""),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
         <f>IF(C14=0,0,ROUND(SUMPRODUCT(C7:C13,D7:D13)/C14,2))</f>
         <v>0</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="42">
         <f>$E$13</f>
         <v>0</v>
       </c>
@@ -2933,32 +2933,32 @@
         <v>0</v>
       </c>
       <c r="I14" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J14" s="49"/>
+      <c r="K14" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="15" t="str">
-        <f>IF(C14="","",IF(OR(C14&lt;0,C14&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C14&lt;&gt;ROUND(C14,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
-        <v/>
-      </c>
       <c r="L14" s="15" t="str">
-        <f>IF(D14="","",IF(D14&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D14&lt;&gt;ROUND(D14,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M14" s="15" t="str">
-        <f>IF(E14="","",IF(E14&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E14&lt;&gt;ROUND(E14,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N14" s="15" t="str">
-        <f>IF(F14="","",IF(OR(F14&lt;0,F14&gt;99999999.99),"110.9.24起申請案件[撥款金額]須為小於9位之正數,",IF(F14&lt;&gt;ROUND(F14,2),"110.9.24起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O14" s="15" t="str">
-        <f>IF(G14="","",IF(G14&gt;99.99,"110.9.24起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G14&lt;&gt;ROUND(G14,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P14" s="15" t="str">
-        <f>IF(H14="","",IF(H14&gt;99.99,"110.9.24起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H14&lt;&gt;ROUND(H14,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R14" s="25" t="str">
@@ -2975,13 +2975,13 @@
       </c>
     </row>
     <row r="15" spans="1:68" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
       <c r="S15" s="29"/>
     </row>
     <row r="16" spans="1:68" ht="19.8" x14ac:dyDescent="0.4">
@@ -2997,7 +2997,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="19"/>
-      <c r="G16" s="40"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
@@ -3012,7 +3012,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="19"/>
-      <c r="G17" s="40"/>
+      <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
@@ -3027,7 +3027,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="19"/>
-      <c r="G18" s="40"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
@@ -3061,6 +3061,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="I12:J12"/>
@@ -3073,14 +3081,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3120,12 +3120,12 @@
         <f>IF(COUNTBLANK(F5:F12)=8,"","本表有誤")</f>
         <v/>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
       <c r="BA1" s="7" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(C2," ",""),"　","")</f>
         <v>民國年月</v>
@@ -3163,10 +3163,10 @@
       </c>
     </row>
     <row r="2" spans="1:62" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="37"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:62" s="13" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3473,13 +3473,13 @@
       </c>
     </row>
     <row r="13" spans="1:62" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
       <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:62" ht="19.8" x14ac:dyDescent="0.4">

--- a/Program/Other/LM076_底稿_B042金融機構承作「購地貸款」統計表.xlsx
+++ b/Program/Other/LM076_底稿_B042金融機構承作「購地貸款」統計表.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_REPO_SKL\iTX\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.8\itxDoc\itxWrite\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84AE264-764B-410C-BB4F-BC09EEF8D0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CFE155-08A4-405D-9BD1-763468BDC140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOA" sheetId="84" r:id="rId1"/>
-    <sheet name="Original" sheetId="83" r:id="rId2"/>
+    <sheet name="Original" sheetId="85" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="59">
   <si>
     <t>地區別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,15 +227,15 @@
   </si>
   <si>
     <t>年月</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>編號</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>版次</t>
-    <phoneticPr fontId="29" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>B042</t>
@@ -364,139 +364,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>一、本統計表</t>
+    <t>二、報送方式（以網路申報為主，電子郵件傳送為輔）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新承作
+撥款金額(億元)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料期間：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B042-</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>每月填報</t>
+        <sz val="18"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>金融機構承作</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="18"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>購地貸款」統計表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，並於每月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日上午</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>時前報送上月資料，首次報送日為</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>110.1.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，遇假日順延。</t>
+      <t/>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>B042-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>金融機構承作</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>「</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>購地貸款」統計表</t>
+    <t>填報機構：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新光人壽保險股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國  110  年  12  月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>109.12.8~110.9.23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>申請案件</t>
     </r>
     <r>
       <rPr>
@@ -505,11 +460,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>(LTV</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -518,7 +470,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>三、本行窗口：陳素慧專員</t>
+      <t>上限</t>
     </r>
     <r>
       <rPr>
@@ -527,7 +479,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(02-23571363)</t>
+      <t>6.5</t>
     </r>
     <r>
       <rPr>
@@ -537,99 +489,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二、報送方式（以網路申報為主，電子郵件傳送為輔）：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新承作
-撥款金額(億元)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>註：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">轉貸及舊貸展期資料無須填列。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>分次撥款案件，請填寫當次撥款金額及核准額度之貸款條件。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民國    年    月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填報機構：</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>資料期間：</t>
-    </r>
-  </si>
-  <si>
-    <t>民國    年    月</t>
-  </si>
-  <si>
-    <r>
-      <t>109.12.8~110.9.23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>申請案件</t>
+      <t>成</t>
     </r>
     <r>
       <rPr>
@@ -638,14 +498,134 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>110.9.24~110.12.16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>申請案件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>(LTV</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>110.12.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>起申請案件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(LTV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(LTV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
         <charset val="136"/>
       </rPr>
       <t>上限</t>
@@ -663,8 +643,8 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
         <charset val="136"/>
       </rPr>
       <t>成</t>
@@ -682,7 +662,7 @@
   </si>
   <si>
     <r>
-      <t>110.9.24</t>
+      <t>(LTV</t>
     </r>
     <r>
       <rPr>
@@ -692,7 +672,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>起申請案件</t>
+      <t>上限</t>
     </r>
     <r>
       <rPr>
@@ -701,7 +681,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(LTV</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -711,7 +691,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>上限</t>
+      <t>成</t>
     </r>
     <r>
       <rPr>
@@ -720,7 +700,13 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>6</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(LTV</t>
     </r>
     <r>
       <rPr>
@@ -730,7 +716,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>成</t>
+      <t>上限</t>
     </r>
     <r>
       <rPr>
@@ -739,23 +725,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(LTV</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上限</t>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成</t>
     </r>
     <r>
       <rPr>
@@ -764,17 +744,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>6.5</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(LTV</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成</t>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上限5成</t>
     </r>
     <r>
       <rPr>
@@ -789,17 +775,396 @@
   </si>
   <si>
     <r>
-      <t>(LTV</t>
-    </r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加權平均
+貸款利率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>註：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">轉貸及舊貸展期資料無須填列。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">分次撥款案件，請填寫當次撥款金額及核准額度之貸款條件。
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>借款人於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>前已向承貸金融機構提出正式之申請書，並經該金融機構錄案辦理之案件，貸款條件得按錄案時之規定辦理；於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後之新申請案件，貸款條件
+     應按修正規定辦理。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許慧玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳政皓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-23895858#7084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-23895858#7090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skem8461@skl.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chchen@skl.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一、本統計表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>每月填報</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，並於每月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日上午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>時前報送上月資料，首次報送日為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>111.1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，遇假日順延。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上限</t>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>三、本行窗口：陳千鶴專員</t>
     </r>
     <r>
       <rPr>
@@ -808,27 +1173,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>6</t>
+      <t>(02-23571365)</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYY 年 MM 月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,7 +1201,7 @@
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1036,12 +1396,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="標楷體"/>
       <family val="4"/>
@@ -1064,13 +1418,6 @@
       <color rgb="FFFF0000"/>
       <name val="標楷體"/>
       <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -1100,24 +1447,38 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="18"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1276,28 +1637,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1422,32 +1780,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="44"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="44"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="44"/>
-      </right>
-      <top style="thin">
-        <color indexed="44"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1510,35 +1842,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="44"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1609,22 +1917,22 @@
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1651,26 +1959,26 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1679,7 +1987,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1687,195 +1995,168 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="25" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="25" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="36" fillId="30" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="36" fillId="30" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="36" fillId="30" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="34" fillId="30" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="34" fillId="30" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="34" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="35" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2274,813 +2555,1003 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF65552-3C83-45D0-BB5D-33C0B60BEEF0}">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="12" customWidth="1"/>
-    <col min="8" max="9" width="19.33203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="37" customWidth="1"/>
-    <col min="11" max="16" width="13.77734375" style="12" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" style="12" hidden="1" customWidth="1"/>
-    <col min="18" max="20" width="13.77734375" style="12" hidden="1" customWidth="1"/>
-    <col min="21" max="67" width="8.88671875" style="12" customWidth="1"/>
-    <col min="68" max="68" width="11.44140625" style="12" customWidth="1"/>
-    <col min="69" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="14.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="15.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="3.44140625" style="4" customWidth="1"/>
+    <col min="14" max="65" width="8.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="66" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="str">
-        <f>IF(COUNTBLANK(I7:I14)=8,"","本表有誤")</f>
-        <v/>
-      </c>
-      <c r="B1" s="53" t="s">
+    <row r="1" spans="1:62" ht="24.6">
+      <c r="A1" s="2" t="str">
+        <f>IF(COUNTBLANK(L7:L14)=8,"","本表有誤")</f>
+        <v/>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="BA1" s="5" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(F3," ",""),"　","")</f>
+        <v>YYY年MM月</v>
+      </c>
+      <c r="BB1" s="5" t="str">
+        <f>LEFT(BA1,FIND("月",BA1,1))</f>
+        <v>YYY年MM月</v>
+      </c>
+      <c r="BC1" s="6" t="e">
+        <f>MID(BA1,FIND("民國",BA1,1)+2,FIND("年",BA1,1)-FIND("民國",BA1,1)-2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD1" s="6" t="str">
+        <f>MID(BA1,FIND("年",BA1,1)+1,FIND("月",BA1,1)-FIND("年",BA1,1)-1)</f>
+        <v>MM</v>
+      </c>
+      <c r="BE1" s="6" t="e">
+        <f>(BC1+1911) &amp; RIGHT("0" &amp; BD1,2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI1" s="6">
+        <v>5</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" s="8" customFormat="1" ht="19.8">
+      <c r="E2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:62" s="8" customFormat="1" ht="19.8">
+      <c r="E3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+    </row>
+    <row r="5" spans="1:62" ht="16.2">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="X5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+    </row>
+    <row r="6" spans="1:62" s="27" customFormat="1" ht="64.8">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="37"/>
-      <c r="BG1" s="7" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(#REF!," ",""),"　","")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BH1" s="7" t="e">
-        <f>LEFT(BG1,FIND("月",BG1,1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BI1" s="8" t="e">
-        <f>MID(BG1,FIND("民國",BG1,1)+2,FIND("年",BG1,1)-FIND("民國",BG1,1)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BJ1" s="8" t="e">
-        <f>MID(BG1,FIND("年",BG1,1)+1,FIND("月",BG1,1)-FIND("年",BG1,1)-1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BK1" s="8" t="e">
-        <f>(BI1+1911) &amp; RIGHT("0" &amp; BJ1,2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BL1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="BM1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="BN1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="BO1" s="8">
-        <v>3</v>
-      </c>
-      <c r="BP1" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="C2" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="38"/>
-      <c r="BG2" s="38"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
-      <c r="BJ2" s="38"/>
-      <c r="BK2" s="38"/>
-      <c r="BL2" s="38"/>
-      <c r="BM2" s="38"/>
-      <c r="BN2" s="38"/>
-      <c r="BO2" s="38"/>
-      <c r="BP2" s="38"/>
-    </row>
-    <row r="3" spans="1:68" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="C3" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="38"/>
-      <c r="AY3" s="38"/>
-      <c r="AZ3" s="38"/>
-      <c r="BA3" s="38"/>
-      <c r="BB3" s="38"/>
-      <c r="BC3" s="38"/>
-      <c r="BD3" s="38"/>
-      <c r="BE3" s="38"/>
-      <c r="BF3" s="38"/>
-      <c r="BG3" s="38"/>
-      <c r="BH3" s="38"/>
-      <c r="BI3" s="38"/>
-      <c r="BJ3" s="38"/>
-      <c r="BK3" s="38"/>
-      <c r="BL3" s="38"/>
-      <c r="BM3" s="38"/>
-      <c r="BN3" s="38"/>
-      <c r="BO3" s="38"/>
-      <c r="BP3" s="38"/>
-    </row>
-    <row r="4" spans="1:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="45"/>
-    </row>
-    <row r="6" spans="1:68" s="13" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="36" t="s">
-        <v>38</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="F6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="36" t="s">
+      <c r="I6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="O6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="P6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="Q6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="R6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="S6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="T6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="U6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="V6" s="21" t="s">
         <v>9</v>
       </c>
+      <c r="X6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF6" s="21" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:62" ht="27.9" customHeight="1">
+      <c r="A7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="46" t="str">
-        <f>$K7&amp;$L7&amp;$M7&amp;$N7&amp;$O7&amp;$P7</f>
-        <v/>
-      </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="15" t="str">
-        <f t="shared" ref="K7:K14" si="0">IF(C7="","",IF(OR(C7&lt;0,C7&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C7&lt;&gt;ROUND(C7,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
-        <v/>
-      </c>
-      <c r="L7" s="15" t="str">
-        <f t="shared" ref="L7:L14" si="1">IF(D7="","",IF(D7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D7&lt;&gt;ROUND(D7,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
-        <v/>
-      </c>
-      <c r="M7" s="15" t="str">
-        <f t="shared" ref="M7:M14" si="2">IF(E7="","",IF(E7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E7&lt;&gt;ROUND(E7,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
-        <v/>
-      </c>
-      <c r="N7" s="15" t="str">
-        <f t="shared" ref="N7:N14" si="3">IF(F7="","",IF(OR(F7&lt;0,F7&gt;99999999.99),"110.9.24起申請案件[撥款金額]須為小於9位之正數,",IF(F7&lt;&gt;ROUND(F7,2),"110.9.24起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
-        <v/>
-      </c>
-      <c r="O7" s="15" t="str">
-        <f t="shared" ref="O7:O14" si="4">IF(G7="","",IF(G7&gt;99.99,"110.9.24起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G7&lt;&gt;ROUND(G7,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
-        <v/>
-      </c>
-      <c r="P7" s="15" t="str">
-        <f t="shared" ref="P7:P14" si="5">IF(H7="","",IF(H7&gt;99.99,"110.9.24起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H7&lt;&gt;ROUND(H7,2),"110.9.24起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
-        <v/>
-      </c>
-      <c r="S7" s="16" t="str">
-        <f t="shared" ref="S7:S13" si="6">IF(L7="",IF(D7&gt;65,"加權平均貸款成數最高為6.5成,",""),"")</f>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="31" t="str">
+        <f>N7&amp;O7&amp;P7&amp;Q7&amp;R7&amp;S7&amp;T7&amp;U7&amp;V7&amp;Y7&amp;AB7&amp;AE7</f>
+        <v/>
+      </c>
+      <c r="M7" s="32"/>
+      <c r="N7" s="33" t="str">
+        <f>IF(C7="","",IF(OR(C7&lt;0,C7&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C7&lt;&gt;ROUND(C7,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <v/>
+      </c>
+      <c r="O7" s="33" t="str">
+        <f>IF(D7="","",IF(D7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D7&lt;&gt;ROUND(D7,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="P7" s="33" t="str">
+        <f>IF(E7="","",IF(E7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E7&lt;&gt;ROUND(E7,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="Q7" s="34" t="str">
+        <f>IF(F7="","",IF(OR(F7&lt;0,F7&gt;99999999.99),"110.9.24~110.12.16申請案件[撥款金額]須為小於9位之正數,",IF(F7&lt;&gt;ROUND(F7,2),"110.9.24~110.12.16申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <v/>
+      </c>
+      <c r="R7" s="34" t="str">
+        <f>IF(G7="","",IF(G7&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G7&lt;&gt;ROUND(G7,2),"110.9.24~110.12.16申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="S7" s="34" t="str">
+        <f>IF(H7="","",IF(H7&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H7&lt;&gt;ROUND(H7,2),"110.9.24~110.12.16申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="T7" s="35" t="str">
+        <f>IF(I7="","",IF(OR(I7&lt;0,I7&gt;99999999.99),"110.12.17起申請案件[撥款金額]須為小於9位之正數,",IF(I7&lt;&gt;ROUND(I7,2),"110.12.17起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <v/>
+      </c>
+      <c r="U7" s="35" t="str">
+        <f>IF(J7="","",IF(J7&gt;99.99,"110.12.17起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(J7&lt;&gt;ROUND(J7,2),"110.12.17起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="V7" s="35" t="str">
+        <f>IF(K7="","",IF(K7&gt;99.99,"110.12.17起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(K7&lt;&gt;ROUND(K7,2),"110.12.17起申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="Y7" s="36" t="str">
+        <f>IF(O7="",IF(D7&gt;65,"109.12.8~110.9.23申請案件加權平均貸款成數最高為6.5成,",""),"")</f>
+        <v/>
+      </c>
+      <c r="AB7" s="36" t="str">
+        <f>IF(R7="",IF(G7&gt;60,"110.9.24起申請案件加權平均貸款成數最高為6成,",""),"")</f>
+        <v/>
+      </c>
+      <c r="AE7" s="36" t="str">
+        <f>IF(U7="",IF(J7&gt;50,"110.12.17起申請案件加權平均貸款成數最高為5成,",""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:68" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:62" ht="27.9" customHeight="1">
+      <c r="A8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="46" t="str">
-        <f t="shared" ref="I8:I14" si="7">$K8&amp;$L8&amp;$M8&amp;$N8&amp;$O8&amp;$P8</f>
-        <v/>
-      </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="15" t="str">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="31" t="str">
+        <f t="shared" ref="L8:L14" si="0">N8&amp;O8&amp;P8&amp;Q8&amp;R8&amp;S8&amp;T8&amp;U8&amp;V8&amp;Y8&amp;AB8&amp;AE8</f>
+        <v/>
+      </c>
+      <c r="M8" s="32"/>
+      <c r="N8" s="33" t="str">
+        <f t="shared" ref="N8:N14" si="1">IF(C8="","",IF(OR(C8&lt;0,C8&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C8&lt;&gt;ROUND(C8,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <v/>
+      </c>
+      <c r="O8" s="33" t="str">
+        <f t="shared" ref="O8:O14" si="2">IF(D8="","",IF(D8&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D8&lt;&gt;ROUND(D8,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="P8" s="33" t="str">
+        <f t="shared" ref="P8:P14" si="3">IF(E8="","",IF(E8&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E8&lt;&gt;ROUND(E8,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="Q8" s="34" t="str">
+        <f t="shared" ref="Q8:Q14" si="4">IF(F8="","",IF(OR(F8&lt;0,F8&gt;99999999.99),"110.9.24~110.12.16申請案件[撥款金額]須為小於9位之正數,",IF(F8&lt;&gt;ROUND(F8,2),"110.9.24~110.12.16申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <v/>
+      </c>
+      <c r="R8" s="34" t="str">
+        <f t="shared" ref="R8:R14" si="5">IF(G8="","",IF(G8&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G8&lt;&gt;ROUND(G8,2),"110.9.24~110.12.16申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="S8" s="34" t="str">
+        <f t="shared" ref="S8:S14" si="6">IF(H8="","",IF(H8&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H8&lt;&gt;ROUND(H8,2),"110.9.24~110.12.16申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="T8" s="35" t="str">
+        <f t="shared" ref="T8:T14" si="7">IF(I8="","",IF(OR(I8&lt;0,I8&gt;99999999.99),"110.12.17起申請案件[撥款金額]須為小於9位之正數,",IF(I8&lt;&gt;ROUND(I8,2),"110.12.17起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <v/>
+      </c>
+      <c r="U8" s="35" t="str">
+        <f t="shared" ref="U8:U14" si="8">IF(J8="","",IF(J8&gt;99.99,"110.12.17起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(J8&lt;&gt;ROUND(J8,2),"110.12.17起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="V8" s="35" t="str">
+        <f t="shared" ref="V8:V14" si="9">IF(K8="","",IF(K8&gt;99.99,"110.12.17起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(K8&lt;&gt;ROUND(K8,2),"110.12.17起申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="Y8" s="36" t="str">
+        <f t="shared" ref="Y8:Y13" si="10">IF(O8="",IF(D8&gt;65,"109.12.8~110.9.23申請案件加權平均貸款成數最高為6.5成,",""),"")</f>
+        <v/>
+      </c>
+      <c r="AB8" s="36" t="str">
+        <f t="shared" ref="AB8:AB13" si="11">IF(R8="",IF(G8&gt;60,"110.9.24起申請案件加權平均貸款成數最高為6成,",""),"")</f>
+        <v/>
+      </c>
+      <c r="AE8" s="36" t="str">
+        <f t="shared" ref="AE8:AE13" si="12">IF(U8="",IF(J8&gt;50,"110.12.17起申請案件加權平均貸款成數最高為5成,",""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:62" ht="27.9" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L8" s="15" t="str">
+      <c r="M9" s="32"/>
+      <c r="N9" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M8" s="15" t="str">
+      <c r="O9" s="33" t="str">
+        <f>IF(D9="","",IF(D9&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D9&lt;&gt;ROUND(D9,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="P9" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q9" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R9" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S9" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T9" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U9" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V9" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y9" s="36" t="str">
+        <f>IF(O9="",IF(D9&gt;65,"109.12.8~110.9.23申請案件加權平均貸款成數最高為6.5成,",""),"")</f>
+        <v/>
+      </c>
+      <c r="AB9" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE9" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:62" ht="27.9" customHeight="1">
+      <c r="A10" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O10" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N8" s="15" t="str">
+      <c r="P10" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O8" s="15" t="str">
+      <c r="Q10" s="34" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P8" s="15" t="str">
+      <c r="R10" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S8" s="16" t="str">
+      <c r="S10" s="34" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
+      <c r="T10" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U10" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V10" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y10" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AB10" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE10" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
     </row>
-    <row r="9" spans="1:68" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="46" t="str">
+    <row r="11" spans="1:62" ht="27.9" customHeight="1">
+      <c r="A11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O11" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P11" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q11" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R11" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S11" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T11" s="35" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="15" t="str">
+      <c r="U11" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V11" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y11" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AB11" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE11" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:62" ht="27.9" customHeight="1">
+      <c r="A12" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L9" s="15" t="str">
+      <c r="M12" s="32"/>
+      <c r="N12" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M9" s="15" t="str">
+      <c r="O12" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="15" t="str">
+      <c r="P12" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O9" s="15" t="str">
+      <c r="Q12" s="34" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P9" s="15" t="str">
+      <c r="R12" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S9" s="16" t="str">
+      <c r="S12" s="34" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
+      <c r="T12" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U12" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V12" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y12" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AB12" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE12" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
     </row>
-    <row r="10" spans="1:68" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="46" t="str">
+    <row r="13" spans="1:62" ht="27.9" customHeight="1">
+      <c r="A13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M13" s="32"/>
+      <c r="N13" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O13" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P13" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q13" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R13" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S13" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T13" s="35" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="15" t="str">
+      <c r="U13" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V13" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y13" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AB13" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE13" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:62" ht="18">
+      <c r="A14" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="38">
+        <f>SUM(C7:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="39">
+        <f>IF(C14=0,0,ROUND(SUMPRODUCT(C7:C13,D7:D13)/C14,2))</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="40">
+        <f>IF(C14=0,0,ROUND(SUMPRODUCT(C7:C13,E7:E13)/C14,2))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="40">
+        <f>SUM(F7:F13)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="40">
+        <f>IF(F14=0,0,ROUND(SUMPRODUCT(F7:F13,G7:G13)/F14,2))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="40">
+        <f>IF(F14=0,0,ROUND(SUMPRODUCT(F7:F13,H7:H13)/F14,2))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="41">
+        <f>SUM(I7:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="41">
+        <f>IF(I14=0,0,ROUND(SUMPRODUCT(I7:I13,J7:J13)/I14,2))</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="41">
+        <f>IF(I14=0,0,ROUND(SUMPRODUCT(I7:I13,K7:K13)/I14,2))</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L10" s="15" t="str">
+      <c r="M14" s="32"/>
+      <c r="N14" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M10" s="15" t="str">
+      <c r="O14" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N10" s="15" t="str">
+      <c r="P14" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O10" s="15" t="str">
+      <c r="Q14" s="34" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P10" s="15" t="str">
+      <c r="R14" s="34" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S10" s="16" t="str">
+      <c r="S14" s="34" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
+      <c r="T14" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U14" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V14" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X14" s="42" t="str">
+        <f>IF(N14="",IF(C14&lt;&gt;SUM(C7:C13),"109.12.8~110.9.23申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
+        <v/>
+      </c>
+      <c r="Y14" s="43" t="str">
+        <f>IF(O14="",IF(D14&gt;65,"   109.12.8~110.9.23申請案件加權平均貸款成數最高為6.5成,",IF(C14=0,"",IF(D14&lt;&gt;ROUND(SUMPRODUCT(C7:C13,D7:D13)/C14,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
+        <v/>
+      </c>
+      <c r="Z14" s="42" t="str">
+        <f>IF(P14="",IF(C14=0,"",IF(E14&lt;&gt;ROUND(SUMPRODUCT(C7:C13,E7:E13)/C14,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
+        <v/>
+      </c>
+      <c r="AA14" s="42" t="str">
+        <f>IF(Q14="",IF(F14&lt;&gt;SUM(F7:F13),"110.9.24起申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
+        <v/>
+      </c>
+      <c r="AB14" s="43" t="str">
+        <f>IF(R14="",IF(G14&gt;60,"   110.9.24起申請案件加權平均貸款成數最高為6成,",IF(F14=0,"",IF(G14&lt;&gt;ROUND(SUMPRODUCT(F7:F13,G7:G13)/F14,2),"110.9.24起申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
+        <v/>
+      </c>
+      <c r="AC14" s="42" t="str">
+        <f>IF(S14="",IF(F14=0,"",IF(H14&lt;&gt;ROUND(SUMPRODUCT(F7:F13,H7:H13)/F14,2),"110.9.24起申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
+        <v/>
+      </c>
+      <c r="AD14" s="42" t="str">
+        <f>IF(T14="",IF(I14&lt;&gt;SUM(I7:I13),"110.12.17起申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
+        <v/>
+      </c>
+      <c r="AE14" s="43" t="str">
+        <f>IF(U14="",IF(J14&gt;50,"   110.12.17起申請案件加權平均貸款成數最高為5成,",IF(I14=0,"",IF(J14&lt;&gt;ROUND(SUMPRODUCT(I7:I13,J7:J13)/I14,2),"110.12.17起申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
+        <v/>
+      </c>
+      <c r="AF14" s="42" t="str">
+        <f>IF(V14="",IF(I14=0,"",IF(K14&lt;&gt;ROUND(SUMPRODUCT(I7:I13,K7:K13)/I14,2),"110.12.17起申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
+        <v/>
+      </c>
     </row>
-    <row r="11" spans="1:68" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="46" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M11" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N11" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O11" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P11" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S11" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+    <row r="15" spans="1:62">
+      <c r="A15" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
     </row>
-    <row r="12" spans="1:68" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="46" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M12" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N12" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O12" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P12" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S12" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+    <row r="16" spans="1:62" ht="19.8">
+      <c r="A16" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
     </row>
-    <row r="13" spans="1:68" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="46" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L13" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M13" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N13" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O13" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P13" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S13" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+    <row r="17" spans="1:14" ht="19.8">
+      <c r="A17" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
     </row>
-    <row r="14" spans="1:68" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="27">
-        <f>SUM(C7:C13)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="28">
-        <f>IF(C14=0,0,ROUND(SUMPRODUCT(C7:C13,D7:D13)/C14,2))</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="42">
-        <f>$E$13</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="27">
-        <f>SUM(F7:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="28">
-        <f>IF(F14=0,0,ROUND(SUMPRODUCT(F7:F13,G7:G13)/F14,2))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="28">
-        <f>IF(F14=0,0,ROUND(SUMPRODUCT(F7:F13,H7:H13)/F14,2))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="48" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L14" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M14" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N14" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O14" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P14" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R14" s="25" t="str">
-        <f>IF(K14="",IF(C14&lt;&gt;SUM(C7:C13),"[撥款金額]_全國(合計數)錯誤,",""),"")</f>
-        <v/>
-      </c>
-      <c r="S14" s="26" t="str">
-        <f>IF(L14="",IF(D14&gt;65,"   加權平均貸款成數最高為6.5成,",IF(C14=0,"",IF(D14&lt;&gt;ROUND(SUMPRODUCT(C7:C13,D7:D13)/C14,2),"[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
-        <v/>
-      </c>
-      <c r="T14" s="25" t="str">
-        <f>IF(M14="",IF(C14=0,"",IF(E14&lt;&gt;ROUND(SUMPRODUCT(C7:C13,E7:E13)/C14,2),"[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
-        <v/>
-      </c>
+    <row r="18" spans="1:14" ht="19.8">
+      <c r="A18" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
     </row>
-    <row r="15" spans="1:68" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="S15" s="29"/>
+    <row r="20" spans="1:14" ht="16.2">
+      <c r="A20" s="49" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="16" spans="1:68" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="35"/>
+    <row r="21" spans="1:14" ht="16.2">
+      <c r="A21" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="35"/>
+    <row r="22" spans="1:14" ht="16.2">
+      <c r="A22" s="25" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="35"/>
+    <row r="23" spans="1:14" ht="16.2">
+      <c r="A23" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>31</v>
+    <row r="24" spans="1:14" ht="16.2">
+      <c r="A24" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>36</v>
+    <row r="25" spans="1:14" ht="16.2">
+      <c r="A25" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
+  <mergeCells count="25">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="N5:P5"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="Q5:S5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3089,480 +3560,1132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55910BA-F030-4E10-99BE-4F6C82A9DC81}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BJ23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B276B651-D454-4A9A-89F1-4582A6CDA6DB}">
+  <dimension ref="A1:BM25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="18" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="3.21875" style="12" customWidth="1"/>
-    <col min="8" max="10" width="13.77734375" style="12" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="12" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="13.77734375" style="12" hidden="1" customWidth="1"/>
-    <col min="15" max="62" width="8.88671875" style="12" hidden="1" customWidth="1"/>
-    <col min="63" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="14.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" style="4" customWidth="1"/>
+    <col min="10" max="11" width="15.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="3.44140625" style="4" customWidth="1"/>
+    <col min="14" max="65" width="8.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="66" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="str">
-        <f>IF(COUNTBLANK(F5:F12)=8,"","本表有誤")</f>
-        <v/>
-      </c>
-      <c r="B1" s="53" t="s">
+    <row r="1" spans="1:62" ht="24.6">
+      <c r="A1" s="2" t="str">
+        <f>IF(COUNTBLANK(L7:L14)=8,"","本表有誤")</f>
+        <v/>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="BA1" s="5" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(F3," ",""),"　","")</f>
+        <v>民國110年12月</v>
+      </c>
+      <c r="BB1" s="5" t="str">
+        <f>LEFT(BA1,FIND("月",BA1,1))</f>
+        <v>民國110年12月</v>
+      </c>
+      <c r="BC1" s="6" t="str">
+        <f>MID(BA1,FIND("民國",BA1,1)+2,FIND("年",BA1,1)-FIND("民國",BA1,1)-2)</f>
+        <v>110</v>
+      </c>
+      <c r="BD1" s="6" t="str">
+        <f>MID(BA1,FIND("年",BA1,1)+1,FIND("月",BA1,1)-FIND("年",BA1,1)-1)</f>
+        <v>12</v>
+      </c>
+      <c r="BE1" s="6" t="str">
+        <f>(BC1+1911) &amp; RIGHT("0" &amp; BD1,2)</f>
+        <v>202112</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI1" s="6">
+        <v>5</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" s="8" customFormat="1" ht="19.8">
+      <c r="E2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:62" s="8" customFormat="1" ht="19.8">
+      <c r="E3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="5" spans="1:62" ht="16.2">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="X5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+    </row>
+    <row r="6" spans="1:62" s="27" customFormat="1" ht="64.8">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="BA1" s="7" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(C2," ",""),"　","")</f>
-        <v>民國年月</v>
-      </c>
-      <c r="BB1" s="7" t="str">
-        <f>LEFT(BA1,FIND("月",BA1,1))</f>
-        <v>民國年月</v>
-      </c>
-      <c r="BC1" s="8" t="str">
-        <f>MID(BA1,FIND("民國",BA1,1)+2,FIND("年",BA1,1)-FIND("民國",BA1,1)-2)</f>
-        <v/>
-      </c>
-      <c r="BD1" s="8" t="str">
-        <f>MID(BA1,FIND("年",BA1,1)+1,FIND("月",BA1,1)-FIND("年",BA1,1)-1)</f>
-        <v/>
-      </c>
-      <c r="BE1" s="8" t="e">
-        <f>(BC1+1911) &amp; RIGHT("0" &amp; BD1,2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BF1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="BH1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="BI1" s="8">
+      <c r="D6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="V6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF6" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" ht="27.9" customHeight="1">
+      <c r="A7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0</v>
+      </c>
+      <c r="H7" s="30">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0</v>
+      </c>
+      <c r="K7" s="30">
+        <v>0</v>
+      </c>
+      <c r="L7" s="31" t="str">
+        <f>N7&amp;O7&amp;P7&amp;Q7&amp;R7&amp;S7&amp;T7&amp;U7&amp;V7&amp;Y7&amp;AB7&amp;AE7</f>
+        <v/>
+      </c>
+      <c r="M7" s="32"/>
+      <c r="N7" s="33" t="str">
+        <f>IF(C7="","",IF(OR(C7&lt;0,C7&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C7&lt;&gt;ROUND(C7,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <v/>
+      </c>
+      <c r="O7" s="33" t="str">
+        <f>IF(D7="","",IF(D7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D7&lt;&gt;ROUND(D7,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="P7" s="33" t="str">
+        <f>IF(E7="","",IF(E7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E7&lt;&gt;ROUND(E7,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="Q7" s="34" t="str">
+        <f>IF(F7="","",IF(OR(F7&lt;0,F7&gt;99999999.99),"110.9.24~110.12.16申請案件[撥款金額]須為小於9位之正數,",IF(F7&lt;&gt;ROUND(F7,2),"110.9.24~110.12.16申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <v/>
+      </c>
+      <c r="R7" s="34" t="str">
+        <f>IF(G7="","",IF(G7&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G7&lt;&gt;ROUND(G7,2),"110.9.24~110.12.16申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="S7" s="34" t="str">
+        <f>IF(H7="","",IF(H7&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H7&lt;&gt;ROUND(H7,2),"110.9.24~110.12.16申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="T7" s="35" t="str">
+        <f>IF(I7="","",IF(OR(I7&lt;0,I7&gt;99999999.99),"110.12.17起申請案件[撥款金額]須為小於9位之正數,",IF(I7&lt;&gt;ROUND(I7,2),"110.12.17起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <v/>
+      </c>
+      <c r="U7" s="35" t="str">
+        <f>IF(J7="","",IF(J7&gt;99.99,"110.12.17起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(J7&lt;&gt;ROUND(J7,2),"110.12.17起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="V7" s="35" t="str">
+        <f>IF(K7="","",IF(K7&gt;99.99,"110.12.17起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(K7&lt;&gt;ROUND(K7,2),"110.12.17起申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="Y7" s="36" t="str">
+        <f>IF(O7="",IF(D7&gt;65,"109.12.8~110.9.23申請案件加權平均貸款成數最高為6.5成,",""),"")</f>
+        <v/>
+      </c>
+      <c r="AB7" s="36" t="str">
+        <f>IF(R7="",IF(G7&gt;60,"110.9.24起申請案件加權平均貸款成數最高為6成,",""),"")</f>
+        <v/>
+      </c>
+      <c r="AE7" s="36" t="str">
+        <f>IF(U7="",IF(J7&gt;50,"110.12.17起申請案件加權平均貸款成數最高為5成,",""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:62" ht="27.9" customHeight="1">
+      <c r="A8" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30">
+        <v>0</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0</v>
+      </c>
+      <c r="K8" s="30">
+        <v>0</v>
+      </c>
+      <c r="L8" s="31" t="str">
+        <f t="shared" ref="L8:L14" si="0">N8&amp;O8&amp;P8&amp;Q8&amp;R8&amp;S8&amp;T8&amp;U8&amp;V8&amp;Y8&amp;AB8&amp;AE8</f>
+        <v/>
+      </c>
+      <c r="M8" s="32"/>
+      <c r="N8" s="33" t="str">
+        <f t="shared" ref="N8:N14" si="1">IF(C8="","",IF(OR(C8&lt;0,C8&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C8&lt;&gt;ROUND(C8,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <v/>
+      </c>
+      <c r="O8" s="33" t="str">
+        <f t="shared" ref="O8:O14" si="2">IF(D8="","",IF(D8&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D8&lt;&gt;ROUND(D8,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="P8" s="33" t="str">
+        <f t="shared" ref="P8:P14" si="3">IF(E8="","",IF(E8&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E8&lt;&gt;ROUND(E8,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="Q8" s="34" t="str">
+        <f t="shared" ref="Q8:Q14" si="4">IF(F8="","",IF(OR(F8&lt;0,F8&gt;99999999.99),"110.9.24~110.12.16申請案件[撥款金額]須為小於9位之正數,",IF(F8&lt;&gt;ROUND(F8,2),"110.9.24~110.12.16申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <v/>
+      </c>
+      <c r="R8" s="34" t="str">
+        <f t="shared" ref="R8:R14" si="5">IF(G8="","",IF(G8&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G8&lt;&gt;ROUND(G8,2),"110.9.24~110.12.16申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="S8" s="34" t="str">
+        <f t="shared" ref="S8:S14" si="6">IF(H8="","",IF(H8&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H8&lt;&gt;ROUND(H8,2),"110.9.24~110.12.16申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="T8" s="35" t="str">
+        <f t="shared" ref="T8:T14" si="7">IF(I8="","",IF(OR(I8&lt;0,I8&gt;99999999.99),"110.12.17起申請案件[撥款金額]須為小於9位之正數,",IF(I8&lt;&gt;ROUND(I8,2),"110.12.17起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
+        <v/>
+      </c>
+      <c r="U8" s="35" t="str">
+        <f t="shared" ref="U8:U14" si="8">IF(J8="","",IF(J8&gt;99.99,"110.12.17起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(J8&lt;&gt;ROUND(J8,2),"110.12.17起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="V8" s="35" t="str">
+        <f t="shared" ref="V8:V14" si="9">IF(K8="","",IF(K8&gt;99.99,"110.12.17起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(K8&lt;&gt;ROUND(K8,2),"110.12.17起申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="Y8" s="36" t="str">
+        <f t="shared" ref="Y8:Y13" si="10">IF(O8="",IF(D8&gt;65,"109.12.8~110.9.23申請案件加權平均貸款成數最高為6.5成,",""),"")</f>
+        <v/>
+      </c>
+      <c r="AB8" s="36" t="str">
+        <f t="shared" ref="AB8:AB13" si="11">IF(R8="",IF(G8&gt;60,"110.9.24起申請案件加權平均貸款成數最高為6成,",""),"")</f>
+        <v/>
+      </c>
+      <c r="AE8" s="36" t="str">
+        <f t="shared" ref="AE8:AE13" si="12">IF(U8="",IF(J8&gt;50,"110.12.17起申請案件加權平均貸款成數最高為5成,",""),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:62" ht="27.9" customHeight="1">
+      <c r="A9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="BJ1" s="7" t="s">
-        <v>29</v>
+      <c r="B9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0</v>
+      </c>
+      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0</v>
+      </c>
+      <c r="K9" s="30">
+        <v>0</v>
+      </c>
+      <c r="L9" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M9" s="32"/>
+      <c r="N9" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O9" s="33" t="str">
+        <f>IF(D9="","",IF(D9&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D9&lt;&gt;ROUND(D9,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
+        <v/>
+      </c>
+      <c r="P9" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q9" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R9" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S9" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T9" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U9" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V9" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y9" s="36" t="str">
+        <f>IF(O9="",IF(D9&gt;65,"109.12.8~110.9.23申請案件加權平均貸款成數最高為6.5成,",""),"")</f>
+        <v/>
+      </c>
+      <c r="AB9" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE9" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v/>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="58"/>
+    <row r="10" spans="1:62" ht="27.9" customHeight="1">
+      <c r="A10" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
+        <v>0</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0</v>
+      </c>
+      <c r="J10" s="30">
+        <v>0</v>
+      </c>
+      <c r="K10" s="30">
+        <v>0</v>
+      </c>
+      <c r="L10" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O10" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P10" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q10" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R10" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S10" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T10" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U10" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V10" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y10" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AB10" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE10" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
     </row>
-    <row r="3" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:62" s="13" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>9</v>
+    <row r="11" spans="1:62" ht="27.9" customHeight="1">
+      <c r="A11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="30">
+        <v>0</v>
+      </c>
+      <c r="D11" s="30">
+        <v>0</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0</v>
+      </c>
+      <c r="H11" s="30">
+        <v>0</v>
+      </c>
+      <c r="I11" s="30">
+        <v>0</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0</v>
+      </c>
+      <c r="K11" s="30">
+        <v>0</v>
+      </c>
+      <c r="L11" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O11" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P11" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q11" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R11" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S11" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T11" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U11" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V11" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y11" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AB11" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE11" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v/>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="10" t="str">
-        <f>H5&amp;I5&amp;J5&amp;M5</f>
-        <v/>
-      </c>
-      <c r="H5" s="15" t="str">
-        <f>IF(C5="","",IF(OR(C5&lt;0,C5&gt;99999999.99),"[撥款金額]須為小於9位之正數,",IF(C5&lt;&gt;ROUND(C5,2),"[撥款金額]須四捨五入至小數下2位,","")))</f>
-        <v/>
-      </c>
-      <c r="I5" s="15" t="str">
-        <f t="shared" ref="I5:I12" si="0">IF(D5="","",IF(D5&gt;99.99,"[加權平均貸款成數]整數位數須小於3位數,",IF(D5&lt;&gt;ROUND(D5,2),"[加權平均貸款成數]小數位數至多為2位,","")))</f>
-        <v/>
-      </c>
-      <c r="J5" s="15" t="str">
-        <f>IF(E5="","",IF(E5&gt;99.99,"[加權平均貸款利率]整數位數須小於3位數,",IF(E5&lt;&gt;ROUND(E5,2),"[加權平均貸款利率]小數位數至多為2位,","")))</f>
-        <v/>
-      </c>
-      <c r="M5" s="16" t="str">
-        <f t="shared" ref="M5:M11" si="1">IF(I5="",IF(D5&gt;65,"加權平均貸款成數最高為6.5成,",""),"")</f>
+    <row r="12" spans="1:62" ht="27.9" customHeight="1">
+      <c r="A12" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="30">
+        <v>0</v>
+      </c>
+      <c r="D12" s="30">
+        <v>0</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0</v>
+      </c>
+      <c r="I12" s="30">
+        <v>0</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0</v>
+      </c>
+      <c r="K12" s="30">
+        <v>0</v>
+      </c>
+      <c r="L12" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O12" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P12" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q12" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R12" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S12" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T12" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U12" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V12" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y12" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AB12" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE12" s="36" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="10" t="str">
-        <f t="shared" ref="F6:F11" si="2">H6&amp;I6&amp;J6&amp;M6</f>
-        <v/>
-      </c>
-      <c r="H6" s="15" t="str">
-        <f t="shared" ref="H6:H12" si="3">IF(C6="","",IF(OR(C6&lt;0,C6&gt;99999999.99),"[撥款金額]須為小於9位之正數,",IF(C6&lt;&gt;ROUND(C6,2),"[撥款金額]須四捨五入至小數下2位,","")))</f>
-        <v/>
-      </c>
-      <c r="I6" s="15" t="str">
+    <row r="13" spans="1:62" ht="27.9" customHeight="1">
+      <c r="A13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="30">
+        <v>0</v>
+      </c>
+      <c r="D13" s="30">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0</v>
+      </c>
+      <c r="H13" s="30">
+        <v>0</v>
+      </c>
+      <c r="I13" s="30">
+        <v>0</v>
+      </c>
+      <c r="J13" s="30">
+        <v>0</v>
+      </c>
+      <c r="K13" s="30">
+        <v>0</v>
+      </c>
+      <c r="L13" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="15" t="str">
-        <f t="shared" ref="J6:J12" si="4">IF(E6="","",IF(E6&gt;99.99,"[加權平均貸款利率]整數位數須小於3位數,",IF(E6&lt;&gt;ROUND(E6,2),"[加權平均貸款利率]小數位數至多為2位,","")))</f>
-        <v/>
-      </c>
-      <c r="M6" s="16" t="str">
+      <c r="M13" s="32"/>
+      <c r="N13" s="33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
+      <c r="O13" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P13" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q13" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R13" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S13" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T13" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U13" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V13" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y13" s="36" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AB13" s="36" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AE13" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
     </row>
-    <row r="7" spans="1:62" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="10" t="str">
+    <row r="14" spans="1:62" ht="18">
+      <c r="A14" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="38">
+        <f>SUM(C7:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="39">
+        <f>IF(C14=0,0,ROUND(SUMPRODUCT(C7:C13,D7:D13)/C14,2))</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="40">
+        <f>IF(C14=0,0,ROUND(SUMPRODUCT(C7:C13,E7:E13)/C14,2))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="40">
+        <f>SUM(F7:F13)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="40">
+        <f>IF(F14=0,0,ROUND(SUMPRODUCT(F7:F13,G7:G13)/F14,2))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="40">
+        <f>IF(F14=0,0,ROUND(SUMPRODUCT(F7:F13,H7:H13)/F14,2))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="41">
+        <f>SUM(I7:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="41">
+        <f>IF(I14=0,0,ROUND(SUMPRODUCT(I7:I13,J7:J13)/I14,2))</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="41">
+        <f>IF(I14=0,0,ROUND(SUMPRODUCT(I7:I13,K7:K13)/I14,2))</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O14" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H7" s="15" t="str">
+      <c r="P14" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J7" s="15" t="str">
+      <c r="Q14" s="34" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M7" s="16" t="str">
-        <f t="shared" si="1"/>
+      <c r="R14" s="34" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S14" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T14" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U14" s="35" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V14" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X14" s="42" t="str">
+        <f>IF(N14="",IF(C14&lt;&gt;SUM(C7:C13),"109.12.8~110.9.23申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
+        <v/>
+      </c>
+      <c r="Y14" s="43" t="str">
+        <f>IF(O14="",IF(D14&gt;65,"   109.12.8~110.9.23申請案件加權平均貸款成數最高為6.5成,",IF(C14=0,"",IF(D14&lt;&gt;ROUND(SUMPRODUCT(C7:C13,D7:D13)/C14,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
+        <v/>
+      </c>
+      <c r="Z14" s="42" t="str">
+        <f>IF(P14="",IF(C14=0,"",IF(E14&lt;&gt;ROUND(SUMPRODUCT(C7:C13,E7:E13)/C14,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
+        <v/>
+      </c>
+      <c r="AA14" s="42" t="str">
+        <f>IF(Q14="",IF(F14&lt;&gt;SUM(F7:F13),"110.9.24起申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
+        <v/>
+      </c>
+      <c r="AB14" s="43" t="str">
+        <f>IF(R14="",IF(G14&gt;60,"   110.9.24起申請案件加權平均貸款成數最高為6成,",IF(F14=0,"",IF(G14&lt;&gt;ROUND(SUMPRODUCT(F7:F13,G7:G13)/F14,2),"110.9.24起申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
+        <v/>
+      </c>
+      <c r="AC14" s="42" t="str">
+        <f>IF(S14="",IF(F14=0,"",IF(H14&lt;&gt;ROUND(SUMPRODUCT(F7:F13,H7:H13)/F14,2),"110.9.24起申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
+        <v/>
+      </c>
+      <c r="AD14" s="42" t="str">
+        <f>IF(T14="",IF(I14&lt;&gt;SUM(I7:I13),"110.12.17起申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
+        <v/>
+      </c>
+      <c r="AE14" s="43" t="str">
+        <f>IF(U14="",IF(J14&gt;50,"   110.12.17起申請案件加權平均貸款成數最高為5成,",IF(I14=0,"",IF(J14&lt;&gt;ROUND(SUMPRODUCT(I7:I13,J7:J13)/I14,2),"110.12.17起申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
+        <v/>
+      </c>
+      <c r="AF14" s="42" t="str">
+        <f>IF(V14="",IF(I14=0,"",IF(K14&lt;&gt;ROUND(SUMPRODUCT(I7:I13,K7:K13)/I14,2),"110.12.17起申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:62" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H8" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J8" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M8" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+    <row r="15" spans="1:62">
+      <c r="A15" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
     </row>
-    <row r="9" spans="1:62" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H9" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J9" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M9" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+    <row r="16" spans="1:62" ht="19.8">
+      <c r="A16" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
     </row>
-    <row r="10" spans="1:62" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H10" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J10" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M10" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+    <row r="17" spans="1:14" ht="19.8">
+      <c r="A17" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
     </row>
-    <row r="11" spans="1:62" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H11" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I11" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M11" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+    <row r="18" spans="1:14" ht="19.8">
+      <c r="A18" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
     </row>
-    <row r="12" spans="1:62" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="27">
-        <f>SUM(C5:C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="28">
-        <f>IF(C12=0,0,ROUND(SUMPRODUCT(C5:C11,D5:D11)/C12,2))</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="28">
-        <f>IF(C12=0,0,ROUND(SUMPRODUCT(C5:C11,E5:E11)/C12,2))</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="10" t="str">
-        <f>H12&amp;I12&amp;J12&amp;M12&amp;L12&amp;N12</f>
-        <v/>
-      </c>
-      <c r="H12" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J12" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L12" s="25" t="str">
-        <f>IF(H12="",IF(C12&lt;&gt;SUM(C5:C11),"[撥款金額]_全國(合計數)錯誤,",""),"")</f>
-        <v/>
-      </c>
-      <c r="M12" s="26" t="str">
-        <f>IF(I12="",IF(D12&gt;65,"   加權平均貸款成數最高為6.5成,",IF(C12=0,"",IF(D12&lt;&gt;ROUND(SUMPRODUCT(C5:C11,D5:D11)/C12,2),"[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
-        <v/>
-      </c>
-      <c r="N12" s="25" t="str">
-        <f>IF(J12="",IF(C12=0,"",IF(E12&lt;&gt;ROUND(SUMPRODUCT(C5:C11,E5:E11)/C12,2),"[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
-        <v/>
+    <row r="20" spans="1:14" ht="16.2">
+      <c r="A20" s="49" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="M13" s="29"/>
+    <row r="21" spans="1:14" ht="16.2">
+      <c r="A21" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="14" spans="1:62" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="19"/>
+    <row r="22" spans="1:14" ht="16.2">
+      <c r="A22" s="25" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="15" spans="1:62" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="19"/>
+    <row r="23" spans="1:14" ht="16.2">
+      <c r="A23" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="16" spans="1:62" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="19"/>
+    <row r="24" spans="1:14" ht="16.2">
+      <c r="A24" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>36</v>
+    <row r="25" spans="1:14" ht="16.2">
+      <c r="A25" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="A9D3" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A13:E13"/>
+  <mergeCells count="25">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Program/Other/LM076_底稿_B042金融機構承作「購地貸款」統計表.xlsx
+++ b/Program/Other/LM076_底稿_B042金融機構承作「購地貸款」統計表.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.8\itxDoc\itxWrite\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CFE155-08A4-405D-9BD1-763468BDC140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C3AC1F-8976-4430-8E66-9715A32C4D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOA" sheetId="84" r:id="rId1"/>
     <sheet name="Original" sheetId="85" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
   <si>
     <t>地區別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1185,10 +1176,6 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYY 年 MM 月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1995,38 +1982,165 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="34" fillId="30" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="34" fillId="30" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="34" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="35" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2036,127 +2150,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="34" fillId="30" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="34" fillId="30" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="34" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="35" fillId="30" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2235,9 +2230,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2275,9 +2270,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2310,26 +2305,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2362,26 +2340,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2557,982 +2518,1091 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF65552-3C83-45D0-BB5D-33C0B60BEEF0}">
   <dimension ref="A1:BM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" style="4" customWidth="1"/>
-    <col min="10" max="11" width="15.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="54.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="3.44140625" style="4" customWidth="1"/>
-    <col min="14" max="65" width="8.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="66" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="14.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="15.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="15.6328125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="54.6328125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.453125" style="2" customWidth="1"/>
+    <col min="14" max="65" width="8.90625" style="2" hidden="1" customWidth="1"/>
+    <col min="66" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="24.6">
-      <c r="A1" s="2" t="str">
+    <row r="1" spans="1:62" ht="25">
+      <c r="A1" s="1" t="str">
         <f>IF(COUNTBLANK(L7:L14)=8,"","本表有誤")</f>
         <v/>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="BA1" s="5" t="str">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="BA1" s="3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(F3," ",""),"　","")</f>
-        <v>YYY年MM月</v>
-      </c>
-      <c r="BB1" s="5" t="str">
+        <v/>
+      </c>
+      <c r="BB1" s="3" t="e">
         <f>LEFT(BA1,FIND("月",BA1,1))</f>
-        <v>YYY年MM月</v>
-      </c>
-      <c r="BC1" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC1" s="4" t="e">
         <f>MID(BA1,FIND("民國",BA1,1)+2,FIND("年",BA1,1)-FIND("民國",BA1,1)-2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BD1" s="6" t="str">
+      <c r="BD1" s="4" t="e">
         <f>MID(BA1,FIND("年",BA1,1)+1,FIND("月",BA1,1)-FIND("年",BA1,1)-1)</f>
-        <v>MM</v>
-      </c>
-      <c r="BE1" s="6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE1" s="4" t="e">
         <f>(BC1+1911) &amp; RIGHT("0" &amp; BD1,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BF1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BG1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BH1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="BI1" s="6">
+      <c r="BI1" s="4">
         <v>5</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:62" s="8" customFormat="1" ht="19.8">
-      <c r="E2" s="9" t="s">
+    <row r="2" spans="1:62" s="6" customFormat="1" ht="19.5">
+      <c r="E2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
     </row>
-    <row r="3" spans="1:62" s="8" customFormat="1" ht="19.8">
-      <c r="E3" s="12" t="s">
+    <row r="3" spans="1:62" s="6" customFormat="1" ht="19.5">
+      <c r="E3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
-    <row r="5" spans="1:62" ht="16.2">
-      <c r="A5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:62" ht="17">
+      <c r="A5" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17" t="s">
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15" t="s">
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15" t="s">
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="X5" s="15" t="s">
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="X5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15" t="s">
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15" t="s">
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
     </row>
-    <row r="6" spans="1:62" s="27" customFormat="1" ht="64.8">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="19" t="s">
+    <row r="6" spans="1:62" s="16" customFormat="1" ht="68">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26" t="s">
+      <c r="L6" s="42"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="S6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="T6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="V6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="X6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="19" t="s">
+      <c r="Y6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="21" t="s">
+      <c r="Z6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AA6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="21" t="s">
+      <c r="AC6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AD6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AE6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AF6" s="21" t="s">
+      <c r="AF6" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="31" t="str">
+      <c r="C7" s="36">
+        <v>0</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0</v>
+      </c>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="36">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36">
+        <v>0</v>
+      </c>
+      <c r="J7" s="36">
+        <v>0</v>
+      </c>
+      <c r="K7" s="36">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20" t="str">
         <f>N7&amp;O7&amp;P7&amp;Q7&amp;R7&amp;S7&amp;T7&amp;U7&amp;V7&amp;Y7&amp;AB7&amp;AE7</f>
         <v/>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33" t="str">
+      <c r="M7" s="21"/>
+      <c r="N7" s="22" t="str">
         <f>IF(C7="","",IF(OR(C7&lt;0,C7&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C7&lt;&gt;ROUND(C7,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="O7" s="33" t="str">
+      <c r="O7" s="22" t="str">
         <f>IF(D7="","",IF(D7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D7&lt;&gt;ROUND(D7,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="P7" s="33" t="str">
+      <c r="P7" s="22" t="str">
         <f>IF(E7="","",IF(E7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E7&lt;&gt;ROUND(E7,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Q7" s="34" t="str">
+      <c r="Q7" s="23" t="str">
         <f>IF(F7="","",IF(OR(F7&lt;0,F7&gt;99999999.99),"110.9.24~110.12.16申請案件[撥款金額]須為小於9位之正數,",IF(F7&lt;&gt;ROUND(F7,2),"110.9.24~110.12.16申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="R7" s="34" t="str">
+      <c r="R7" s="23" t="str">
         <f>IF(G7="","",IF(G7&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G7&lt;&gt;ROUND(G7,2),"110.9.24~110.12.16申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="S7" s="34" t="str">
+      <c r="S7" s="23" t="str">
         <f>IF(H7="","",IF(H7&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H7&lt;&gt;ROUND(H7,2),"110.9.24~110.12.16申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="T7" s="35" t="str">
+      <c r="T7" s="24" t="str">
         <f>IF(I7="","",IF(OR(I7&lt;0,I7&gt;99999999.99),"110.12.17起申請案件[撥款金額]須為小於9位之正數,",IF(I7&lt;&gt;ROUND(I7,2),"110.12.17起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="U7" s="35" t="str">
+      <c r="U7" s="24" t="str">
         <f>IF(J7="","",IF(J7&gt;99.99,"110.12.17起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(J7&lt;&gt;ROUND(J7,2),"110.12.17起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="V7" s="35" t="str">
+      <c r="V7" s="24" t="str">
         <f>IF(K7="","",IF(K7&gt;99.99,"110.12.17起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(K7&lt;&gt;ROUND(K7,2),"110.12.17起申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Y7" s="36" t="str">
+      <c r="Y7" s="25" t="str">
         <f>IF(O7="",IF(D7&gt;65,"109.12.8~110.9.23申請案件加權平均貸款成數最高為6.5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AB7" s="36" t="str">
+      <c r="AB7" s="25" t="str">
         <f>IF(R7="",IF(G7&gt;60,"110.9.24起申請案件加權平均貸款成數最高為6成,",""),"")</f>
         <v/>
       </c>
-      <c r="AE7" s="36" t="str">
+      <c r="AE7" s="25" t="str">
         <f>IF(U7="",IF(J7&gt;50,"110.12.17起申請案件加權平均貸款成數最高為5成,",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="31" t="str">
+      <c r="C8" s="36">
+        <v>0</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0</v>
+      </c>
+      <c r="H8" s="36">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="36">
+        <v>0</v>
+      </c>
+      <c r="K8" s="36">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20" t="str">
         <f t="shared" ref="L8:L14" si="0">N8&amp;O8&amp;P8&amp;Q8&amp;R8&amp;S8&amp;T8&amp;U8&amp;V8&amp;Y8&amp;AB8&amp;AE8</f>
         <v/>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33" t="str">
+      <c r="M8" s="21"/>
+      <c r="N8" s="22" t="str">
         <f t="shared" ref="N8:N14" si="1">IF(C8="","",IF(OR(C8&lt;0,C8&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C8&lt;&gt;ROUND(C8,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="O8" s="33" t="str">
+      <c r="O8" s="22" t="str">
         <f t="shared" ref="O8:O14" si="2">IF(D8="","",IF(D8&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D8&lt;&gt;ROUND(D8,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="P8" s="33" t="str">
+      <c r="P8" s="22" t="str">
         <f t="shared" ref="P8:P14" si="3">IF(E8="","",IF(E8&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E8&lt;&gt;ROUND(E8,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Q8" s="34" t="str">
+      <c r="Q8" s="23" t="str">
         <f t="shared" ref="Q8:Q14" si="4">IF(F8="","",IF(OR(F8&lt;0,F8&gt;99999999.99),"110.9.24~110.12.16申請案件[撥款金額]須為小於9位之正數,",IF(F8&lt;&gt;ROUND(F8,2),"110.9.24~110.12.16申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="R8" s="34" t="str">
+      <c r="R8" s="23" t="str">
         <f t="shared" ref="R8:R14" si="5">IF(G8="","",IF(G8&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G8&lt;&gt;ROUND(G8,2),"110.9.24~110.12.16申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="S8" s="34" t="str">
+      <c r="S8" s="23" t="str">
         <f t="shared" ref="S8:S14" si="6">IF(H8="","",IF(H8&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H8&lt;&gt;ROUND(H8,2),"110.9.24~110.12.16申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="T8" s="35" t="str">
+      <c r="T8" s="24" t="str">
         <f t="shared" ref="T8:T14" si="7">IF(I8="","",IF(OR(I8&lt;0,I8&gt;99999999.99),"110.12.17起申請案件[撥款金額]須為小於9位之正數,",IF(I8&lt;&gt;ROUND(I8,2),"110.12.17起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="U8" s="35" t="str">
+      <c r="U8" s="24" t="str">
         <f t="shared" ref="U8:U14" si="8">IF(J8="","",IF(J8&gt;99.99,"110.12.17起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(J8&lt;&gt;ROUND(J8,2),"110.12.17起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="V8" s="35" t="str">
+      <c r="V8" s="24" t="str">
         <f t="shared" ref="V8:V14" si="9">IF(K8="","",IF(K8&gt;99.99,"110.12.17起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(K8&lt;&gt;ROUND(K8,2),"110.12.17起申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Y8" s="36" t="str">
+      <c r="Y8" s="25" t="str">
         <f t="shared" ref="Y8:Y13" si="10">IF(O8="",IF(D8&gt;65,"109.12.8~110.9.23申請案件加權平均貸款成數最高為6.5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AB8" s="36" t="str">
+      <c r="AB8" s="25" t="str">
         <f t="shared" ref="AB8:AB13" si="11">IF(R8="",IF(G8&gt;60,"110.9.24起申請案件加權平均貸款成數最高為6成,",""),"")</f>
         <v/>
       </c>
-      <c r="AE8" s="36" t="str">
+      <c r="AE8" s="25" t="str">
         <f t="shared" ref="AE8:AE13" si="12">IF(U8="",IF(J8&gt;50,"110.12.17起申請案件加權平均貸款成數最高為5成,",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="31" t="str">
+      <c r="C9" s="36">
+        <v>0</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36">
+        <v>0</v>
+      </c>
+      <c r="J9" s="36">
+        <v>0</v>
+      </c>
+      <c r="K9" s="36">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="33" t="str">
+      <c r="M9" s="21"/>
+      <c r="N9" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O9" s="33" t="str">
+      <c r="O9" s="22" t="str">
         <f>IF(D9="","",IF(D9&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D9&lt;&gt;ROUND(D9,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="P9" s="33" t="str">
+      <c r="P9" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q9" s="34" t="str">
+      <c r="Q9" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R9" s="34" t="str">
+      <c r="R9" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S9" s="34" t="str">
+      <c r="S9" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T9" s="35" t="str">
+      <c r="T9" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U9" s="35" t="str">
+      <c r="U9" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V9" s="35" t="str">
+      <c r="V9" s="24" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y9" s="36" t="str">
+      <c r="Y9" s="25" t="str">
         <f>IF(O9="",IF(D9&gt;65,"109.12.8~110.9.23申請案件加權平均貸款成數最高為6.5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AB9" s="36" t="str">
+      <c r="AB9" s="25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE9" s="36" t="str">
+      <c r="AE9" s="25" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="31" t="str">
+      <c r="C10" s="36">
+        <v>0</v>
+      </c>
+      <c r="D10" s="36">
+        <v>0</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0</v>
+      </c>
+      <c r="H10" s="36">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0</v>
+      </c>
+      <c r="J10" s="36">
+        <v>0</v>
+      </c>
+      <c r="K10" s="36">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33" t="str">
+      <c r="M10" s="21"/>
+      <c r="N10" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O10" s="33" t="str">
+      <c r="O10" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P10" s="33" t="str">
+      <c r="P10" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q10" s="34" t="str">
+      <c r="Q10" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R10" s="34" t="str">
+      <c r="R10" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S10" s="34" t="str">
+      <c r="S10" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T10" s="35" t="str">
+      <c r="T10" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U10" s="35" t="str">
+      <c r="U10" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V10" s="35" t="str">
+      <c r="V10" s="24" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y10" s="36" t="str">
+      <c r="Y10" s="25" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB10" s="36" t="str">
+      <c r="AB10" s="25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE10" s="36" t="str">
+      <c r="AE10" s="25" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="31" t="str">
+      <c r="C11" s="36">
+        <v>0</v>
+      </c>
+      <c r="D11" s="36">
+        <v>0</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0</v>
+      </c>
+      <c r="F11" s="36">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36">
+        <v>0</v>
+      </c>
+      <c r="I11" s="36">
+        <v>0</v>
+      </c>
+      <c r="J11" s="36">
+        <v>0</v>
+      </c>
+      <c r="K11" s="36">
+        <v>0</v>
+      </c>
+      <c r="L11" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33" t="str">
+      <c r="M11" s="21"/>
+      <c r="N11" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O11" s="33" t="str">
+      <c r="O11" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P11" s="33" t="str">
+      <c r="P11" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q11" s="34" t="str">
+      <c r="Q11" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R11" s="34" t="str">
+      <c r="R11" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S11" s="34" t="str">
+      <c r="S11" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T11" s="35" t="str">
+      <c r="T11" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U11" s="35" t="str">
+      <c r="U11" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V11" s="35" t="str">
+      <c r="V11" s="24" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y11" s="36" t="str">
+      <c r="Y11" s="25" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB11" s="36" t="str">
+      <c r="AB11" s="25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE11" s="36" t="str">
+      <c r="AE11" s="25" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="31" t="str">
+      <c r="C12" s="36">
+        <v>0</v>
+      </c>
+      <c r="D12" s="36">
+        <v>0</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36">
+        <v>0</v>
+      </c>
+      <c r="J12" s="36">
+        <v>0</v>
+      </c>
+      <c r="K12" s="36">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33" t="str">
+      <c r="M12" s="21"/>
+      <c r="N12" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O12" s="33" t="str">
+      <c r="O12" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P12" s="33" t="str">
+      <c r="P12" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q12" s="34" t="str">
+      <c r="Q12" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R12" s="34" t="str">
+      <c r="R12" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S12" s="34" t="str">
+      <c r="S12" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T12" s="35" t="str">
+      <c r="T12" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U12" s="35" t="str">
+      <c r="U12" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V12" s="35" t="str">
+      <c r="V12" s="24" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y12" s="36" t="str">
+      <c r="Y12" s="25" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB12" s="36" t="str">
+      <c r="AB12" s="25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE12" s="36" t="str">
+      <c r="AE12" s="25" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="31" t="str">
+      <c r="C13" s="36">
+        <v>0</v>
+      </c>
+      <c r="D13" s="36">
+        <v>0</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0</v>
+      </c>
+      <c r="G13" s="36">
+        <v>0</v>
+      </c>
+      <c r="H13" s="36">
+        <v>0</v>
+      </c>
+      <c r="I13" s="36">
+        <v>0</v>
+      </c>
+      <c r="J13" s="36">
+        <v>0</v>
+      </c>
+      <c r="K13" s="36">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="33" t="str">
+      <c r="M13" s="21"/>
+      <c r="N13" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O13" s="33" t="str">
+      <c r="O13" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P13" s="33" t="str">
+      <c r="P13" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q13" s="34" t="str">
+      <c r="Q13" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R13" s="34" t="str">
+      <c r="R13" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S13" s="34" t="str">
+      <c r="S13" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T13" s="35" t="str">
+      <c r="T13" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U13" s="35" t="str">
+      <c r="U13" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V13" s="35" t="str">
+      <c r="V13" s="24" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y13" s="36" t="str">
+      <c r="Y13" s="25" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB13" s="36" t="str">
+      <c r="AB13" s="25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE13" s="36" t="str">
+      <c r="AE13" s="25" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:62" ht="18">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="27">
         <f>SUM(C7:C13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="28">
         <f>IF(C14=0,0,ROUND(SUMPRODUCT(C7:C13,D7:D13)/C14,2))</f>
         <v>0</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="29">
         <f>IF(C14=0,0,ROUND(SUMPRODUCT(C7:C13,E7:E13)/C14,2))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="29">
         <f>SUM(F7:F13)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="29">
         <f>IF(F14=0,0,ROUND(SUMPRODUCT(F7:F13,G7:G13)/F14,2))</f>
         <v>0</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="29">
         <f>IF(F14=0,0,ROUND(SUMPRODUCT(F7:F13,H7:H13)/F14,2))</f>
         <v>0</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="30">
         <f>SUM(I7:I13)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="30">
         <f>IF(I14=0,0,ROUND(SUMPRODUCT(I7:I13,J7:J13)/I14,2))</f>
         <v>0</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="30">
         <f>IF(I14=0,0,ROUND(SUMPRODUCT(I7:I13,K7:K13)/I14,2))</f>
         <v>0</v>
       </c>
-      <c r="L14" s="31" t="str">
+      <c r="L14" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="33" t="str">
+      <c r="M14" s="21"/>
+      <c r="N14" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O14" s="33" t="str">
+      <c r="O14" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P14" s="33" t="str">
+      <c r="P14" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q14" s="34" t="str">
+      <c r="Q14" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R14" s="34" t="str">
+      <c r="R14" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S14" s="34" t="str">
+      <c r="S14" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T14" s="35" t="str">
+      <c r="T14" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U14" s="35" t="str">
+      <c r="U14" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V14" s="35" t="str">
+      <c r="V14" s="24" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="X14" s="42" t="str">
+      <c r="X14" s="31" t="str">
         <f>IF(N14="",IF(C14&lt;&gt;SUM(C7:C13),"109.12.8~110.9.23申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="Y14" s="43" t="str">
+      <c r="Y14" s="32" t="str">
         <f>IF(O14="",IF(D14&gt;65,"   109.12.8~110.9.23申請案件加權平均貸款成數最高為6.5成,",IF(C14=0,"",IF(D14&lt;&gt;ROUND(SUMPRODUCT(C7:C13,D7:D13)/C14,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="Z14" s="42" t="str">
+      <c r="Z14" s="31" t="str">
         <f>IF(P14="",IF(C14=0,"",IF(E14&lt;&gt;ROUND(SUMPRODUCT(C7:C13,E7:E13)/C14,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
-      <c r="AA14" s="42" t="str">
+      <c r="AA14" s="31" t="str">
         <f>IF(Q14="",IF(F14&lt;&gt;SUM(F7:F13),"110.9.24起申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AB14" s="43" t="str">
+      <c r="AB14" s="32" t="str">
         <f>IF(R14="",IF(G14&gt;60,"   110.9.24起申請案件加權平均貸款成數最高為6成,",IF(F14=0,"",IF(G14&lt;&gt;ROUND(SUMPRODUCT(F7:F13,G7:G13)/F14,2),"110.9.24起申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="AC14" s="42" t="str">
+      <c r="AC14" s="31" t="str">
         <f>IF(S14="",IF(F14=0,"",IF(H14&lt;&gt;ROUND(SUMPRODUCT(F7:F13,H7:H13)/F14,2),"110.9.24起申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
-      <c r="AD14" s="42" t="str">
+      <c r="AD14" s="31" t="str">
         <f>IF(T14="",IF(I14&lt;&gt;SUM(I7:I13),"110.12.17起申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AE14" s="43" t="str">
+      <c r="AE14" s="32" t="str">
         <f>IF(U14="",IF(J14&gt;50,"   110.12.17起申請案件加權平均貸款成數最高為5成,",IF(I14=0,"",IF(J14&lt;&gt;ROUND(SUMPRODUCT(I7:I13,J7:J13)/I14,2),"110.12.17起申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="AF14" s="42" t="str">
+      <c r="AF14" s="31" t="str">
         <f>IF(V14="",IF(I14=0,"",IF(K14&lt;&gt;ROUND(SUMPRODUCT(I7:I13,K7:K13)/I14,2),"110.12.17起申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:62">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
     </row>
-    <row r="16" spans="1:62" ht="19.8">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:62" ht="19.5">
+      <c r="A16" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="45" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="45" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
     </row>
-    <row r="17" spans="1:14" ht="19.8">
-      <c r="A17" s="45" t="s">
+    <row r="17" spans="1:14" ht="19.5">
+      <c r="A17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="45" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="45" t="s">
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
     </row>
-    <row r="18" spans="1:14" ht="19.8">
-      <c r="A18" s="45" t="s">
+    <row r="18" spans="1:14" ht="19.5">
+      <c r="A18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="45" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="45" t="s">
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
     </row>
-    <row r="20" spans="1:14" ht="16.2">
-      <c r="A20" s="49" t="s">
+    <row r="20" spans="1:14" ht="17">
+      <c r="A20" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.2">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:14" ht="17">
+      <c r="A21" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.2">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:14" ht="17">
+      <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.2">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:14" ht="17">
+      <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.2">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:14" ht="17">
+      <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.2">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:14" ht="17">
+      <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
     <mergeCell ref="X5:Z5"/>
     <mergeCell ref="AA5:AC5"/>
     <mergeCell ref="AD5:AF5"/>
@@ -3547,11 +3617,12 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="T5:V5"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3567,1098 +3638,1107 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" style="4" customWidth="1"/>
-    <col min="10" max="11" width="15.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="54.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="3.44140625" style="4" customWidth="1"/>
-    <col min="14" max="65" width="8.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="66" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="14.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="15.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="15.6328125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="54.6328125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.453125" style="2" customWidth="1"/>
+    <col min="14" max="65" width="8.90625" style="2" hidden="1" customWidth="1"/>
+    <col min="66" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="24.6">
-      <c r="A1" s="2" t="str">
+    <row r="1" spans="1:62" ht="25">
+      <c r="A1" s="1" t="str">
         <f>IF(COUNTBLANK(L7:L14)=8,"","本表有誤")</f>
         <v/>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="BA1" s="5" t="str">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="BA1" s="3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(F3," ",""),"　","")</f>
         <v>民國110年12月</v>
       </c>
-      <c r="BB1" s="5" t="str">
+      <c r="BB1" s="3" t="str">
         <f>LEFT(BA1,FIND("月",BA1,1))</f>
         <v>民國110年12月</v>
       </c>
-      <c r="BC1" s="6" t="str">
+      <c r="BC1" s="4" t="str">
         <f>MID(BA1,FIND("民國",BA1,1)+2,FIND("年",BA1,1)-FIND("民國",BA1,1)-2)</f>
         <v>110</v>
       </c>
-      <c r="BD1" s="6" t="str">
+      <c r="BD1" s="4" t="str">
         <f>MID(BA1,FIND("年",BA1,1)+1,FIND("月",BA1,1)-FIND("年",BA1,1)-1)</f>
         <v>12</v>
       </c>
-      <c r="BE1" s="6" t="str">
+      <c r="BE1" s="4" t="str">
         <f>(BC1+1911) &amp; RIGHT("0" &amp; BD1,2)</f>
         <v>202112</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BF1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BG1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BH1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="BI1" s="6">
+      <c r="BI1" s="4">
         <v>5</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:62" s="8" customFormat="1" ht="19.8">
-      <c r="E2" s="9" t="s">
+    <row r="2" spans="1:62" s="6" customFormat="1" ht="19.5">
+      <c r="E2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
-    <row r="3" spans="1:62" s="8" customFormat="1" ht="19.8">
-      <c r="E3" s="12" t="s">
+    <row r="3" spans="1:62" s="6" customFormat="1" ht="19.5">
+      <c r="E3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
-    <row r="5" spans="1:62" ht="16.2">
-      <c r="A5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:62" ht="17">
+      <c r="A5" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17" t="s">
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15" t="s">
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15" t="s">
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="X5" s="15" t="s">
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="X5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15" t="s">
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15" t="s">
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
     </row>
-    <row r="6" spans="1:62" s="27" customFormat="1" ht="64.8">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="19" t="s">
+    <row r="6" spans="1:62" s="16" customFormat="1" ht="68">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26" t="s">
+      <c r="L6" s="42"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="S6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="T6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="V6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="X6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="19" t="s">
+      <c r="Y6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="21" t="s">
+      <c r="Z6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AA6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="21" t="s">
+      <c r="AC6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AD6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AE6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AF6" s="21" t="s">
+      <c r="AF6" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="30">
-        <v>0</v>
-      </c>
-      <c r="D7" s="30">
-        <v>0</v>
-      </c>
-      <c r="E7" s="30">
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
-        <v>0</v>
-      </c>
-      <c r="G7" s="30">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30">
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0</v>
-      </c>
-      <c r="J7" s="30">
-        <v>0</v>
-      </c>
-      <c r="K7" s="30">
-        <v>0</v>
-      </c>
-      <c r="L7" s="31" t="str">
+      <c r="C7" s="19">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20" t="str">
         <f>N7&amp;O7&amp;P7&amp;Q7&amp;R7&amp;S7&amp;T7&amp;U7&amp;V7&amp;Y7&amp;AB7&amp;AE7</f>
         <v/>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33" t="str">
+      <c r="M7" s="21"/>
+      <c r="N7" s="22" t="str">
         <f>IF(C7="","",IF(OR(C7&lt;0,C7&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C7&lt;&gt;ROUND(C7,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="O7" s="33" t="str">
+      <c r="O7" s="22" t="str">
         <f>IF(D7="","",IF(D7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D7&lt;&gt;ROUND(D7,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="P7" s="33" t="str">
+      <c r="P7" s="22" t="str">
         <f>IF(E7="","",IF(E7&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E7&lt;&gt;ROUND(E7,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Q7" s="34" t="str">
+      <c r="Q7" s="23" t="str">
         <f>IF(F7="","",IF(OR(F7&lt;0,F7&gt;99999999.99),"110.9.24~110.12.16申請案件[撥款金額]須為小於9位之正數,",IF(F7&lt;&gt;ROUND(F7,2),"110.9.24~110.12.16申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="R7" s="34" t="str">
+      <c r="R7" s="23" t="str">
         <f>IF(G7="","",IF(G7&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G7&lt;&gt;ROUND(G7,2),"110.9.24~110.12.16申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="S7" s="34" t="str">
+      <c r="S7" s="23" t="str">
         <f>IF(H7="","",IF(H7&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H7&lt;&gt;ROUND(H7,2),"110.9.24~110.12.16申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="T7" s="35" t="str">
+      <c r="T7" s="24" t="str">
         <f>IF(I7="","",IF(OR(I7&lt;0,I7&gt;99999999.99),"110.12.17起申請案件[撥款金額]須為小於9位之正數,",IF(I7&lt;&gt;ROUND(I7,2),"110.12.17起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="U7" s="35" t="str">
+      <c r="U7" s="24" t="str">
         <f>IF(J7="","",IF(J7&gt;99.99,"110.12.17起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(J7&lt;&gt;ROUND(J7,2),"110.12.17起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="V7" s="35" t="str">
+      <c r="V7" s="24" t="str">
         <f>IF(K7="","",IF(K7&gt;99.99,"110.12.17起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(K7&lt;&gt;ROUND(K7,2),"110.12.17起申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Y7" s="36" t="str">
+      <c r="Y7" s="25" t="str">
         <f>IF(O7="",IF(D7&gt;65,"109.12.8~110.9.23申請案件加權平均貸款成數最高為6.5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AB7" s="36" t="str">
+      <c r="AB7" s="25" t="str">
         <f>IF(R7="",IF(G7&gt;60,"110.9.24起申請案件加權平均貸款成數最高為6成,",""),"")</f>
         <v/>
       </c>
-      <c r="AE7" s="36" t="str">
+      <c r="AE7" s="25" t="str">
         <f>IF(U7="",IF(J7&gt;50,"110.12.17起申請案件加權平均貸款成數最高為5成,",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="30">
-        <v>0</v>
-      </c>
-      <c r="D8" s="30">
-        <v>0</v>
-      </c>
-      <c r="E8" s="30">
-        <v>0</v>
-      </c>
-      <c r="F8" s="30">
-        <v>0</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
-        <v>0</v>
-      </c>
-      <c r="I8" s="30">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30">
-        <v>0</v>
-      </c>
-      <c r="K8" s="30">
-        <v>0</v>
-      </c>
-      <c r="L8" s="31" t="str">
+      <c r="C8" s="19">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20" t="str">
         <f t="shared" ref="L8:L14" si="0">N8&amp;O8&amp;P8&amp;Q8&amp;R8&amp;S8&amp;T8&amp;U8&amp;V8&amp;Y8&amp;AB8&amp;AE8</f>
         <v/>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33" t="str">
+      <c r="M8" s="21"/>
+      <c r="N8" s="22" t="str">
         <f t="shared" ref="N8:N14" si="1">IF(C8="","",IF(OR(C8&lt;0,C8&gt;99999999.99),"109.12.8~110.9.23申請案件[撥款金額]須為小於9位之正數,",IF(C8&lt;&gt;ROUND(C8,2),"109.12.8~110.9.23申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="O8" s="33" t="str">
+      <c r="O8" s="22" t="str">
         <f t="shared" ref="O8:O14" si="2">IF(D8="","",IF(D8&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D8&lt;&gt;ROUND(D8,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="P8" s="33" t="str">
+      <c r="P8" s="22" t="str">
         <f t="shared" ref="P8:P14" si="3">IF(E8="","",IF(E8&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(E8&lt;&gt;ROUND(E8,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Q8" s="34" t="str">
+      <c r="Q8" s="23" t="str">
         <f t="shared" ref="Q8:Q14" si="4">IF(F8="","",IF(OR(F8&lt;0,F8&gt;99999999.99),"110.9.24~110.12.16申請案件[撥款金額]須為小於9位之正數,",IF(F8&lt;&gt;ROUND(F8,2),"110.9.24~110.12.16申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="R8" s="34" t="str">
+      <c r="R8" s="23" t="str">
         <f t="shared" ref="R8:R14" si="5">IF(G8="","",IF(G8&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(G8&lt;&gt;ROUND(G8,2),"110.9.24~110.12.16申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="S8" s="34" t="str">
+      <c r="S8" s="23" t="str">
         <f t="shared" ref="S8:S14" si="6">IF(H8="","",IF(H8&gt;99.99,"110.9.24~110.12.16申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(H8&lt;&gt;ROUND(H8,2),"110.9.24~110.12.16申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="T8" s="35" t="str">
+      <c r="T8" s="24" t="str">
         <f t="shared" ref="T8:T14" si="7">IF(I8="","",IF(OR(I8&lt;0,I8&gt;99999999.99),"110.12.17起申請案件[撥款金額]須為小於9位之正數,",IF(I8&lt;&gt;ROUND(I8,2),"110.12.17起申請案件[撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="U8" s="35" t="str">
+      <c r="U8" s="24" t="str">
         <f t="shared" ref="U8:U14" si="8">IF(J8="","",IF(J8&gt;99.99,"110.12.17起申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(J8&lt;&gt;ROUND(J8,2),"110.12.17起申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="V8" s="35" t="str">
+      <c r="V8" s="24" t="str">
         <f t="shared" ref="V8:V14" si="9">IF(K8="","",IF(K8&gt;99.99,"110.12.17起申請案件[加權平均貸款利率]整數位數須小於3位數,",IF(K8&lt;&gt;ROUND(K8,2),"110.12.17起申請案件[加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Y8" s="36" t="str">
+      <c r="Y8" s="25" t="str">
         <f t="shared" ref="Y8:Y13" si="10">IF(O8="",IF(D8&gt;65,"109.12.8~110.9.23申請案件加權平均貸款成數最高為6.5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AB8" s="36" t="str">
+      <c r="AB8" s="25" t="str">
         <f t="shared" ref="AB8:AB13" si="11">IF(R8="",IF(G8&gt;60,"110.9.24起申請案件加權平均貸款成數最高為6成,",""),"")</f>
         <v/>
       </c>
-      <c r="AE8" s="36" t="str">
+      <c r="AE8" s="25" t="str">
         <f t="shared" ref="AE8:AE13" si="12">IF(U8="",IF(J8&gt;50,"110.12.17起申請案件加權平均貸款成數最高為5成,",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="30">
-        <v>0</v>
-      </c>
-      <c r="D9" s="30">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
-        <v>0</v>
-      </c>
-      <c r="G9" s="30">
-        <v>0</v>
-      </c>
-      <c r="H9" s="30">
-        <v>0</v>
-      </c>
-      <c r="I9" s="30">
-        <v>0</v>
-      </c>
-      <c r="J9" s="30">
-        <v>0</v>
-      </c>
-      <c r="K9" s="30">
-        <v>0</v>
-      </c>
-      <c r="L9" s="31" t="str">
+      <c r="C9" s="19">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="33" t="str">
+      <c r="M9" s="21"/>
+      <c r="N9" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O9" s="33" t="str">
+      <c r="O9" s="22" t="str">
         <f>IF(D9="","",IF(D9&gt;99.99,"109.12.8~110.9.23申請案件[加權平均貸款成數]整數位數須小於3位數,",IF(D9&lt;&gt;ROUND(D9,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="P9" s="33" t="str">
+      <c r="P9" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q9" s="34" t="str">
+      <c r="Q9" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R9" s="34" t="str">
+      <c r="R9" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S9" s="34" t="str">
+      <c r="S9" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T9" s="35" t="str">
+      <c r="T9" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U9" s="35" t="str">
+      <c r="U9" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V9" s="35" t="str">
+      <c r="V9" s="24" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y9" s="36" t="str">
+      <c r="Y9" s="25" t="str">
         <f>IF(O9="",IF(D9&gt;65,"109.12.8~110.9.23申請案件加權平均貸款成數最高為6.5成,",""),"")</f>
         <v/>
       </c>
-      <c r="AB9" s="36" t="str">
+      <c r="AB9" s="25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE9" s="36" t="str">
+      <c r="AE9" s="25" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="30">
-        <v>0</v>
-      </c>
-      <c r="D10" s="30">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0</v>
-      </c>
-      <c r="G10" s="30">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30">
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
-        <v>0</v>
-      </c>
-      <c r="J10" s="30">
-        <v>0</v>
-      </c>
-      <c r="K10" s="30">
-        <v>0</v>
-      </c>
-      <c r="L10" s="31" t="str">
+      <c r="C10" s="19">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33" t="str">
+      <c r="M10" s="21"/>
+      <c r="N10" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O10" s="33" t="str">
+      <c r="O10" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P10" s="33" t="str">
+      <c r="P10" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q10" s="34" t="str">
+      <c r="Q10" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R10" s="34" t="str">
+      <c r="R10" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S10" s="34" t="str">
+      <c r="S10" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T10" s="35" t="str">
+      <c r="T10" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U10" s="35" t="str">
+      <c r="U10" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V10" s="35" t="str">
+      <c r="V10" s="24" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y10" s="36" t="str">
+      <c r="Y10" s="25" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB10" s="36" t="str">
+      <c r="AB10" s="25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE10" s="36" t="str">
+      <c r="AE10" s="25" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="30">
-        <v>0</v>
-      </c>
-      <c r="D11" s="30">
-        <v>0</v>
-      </c>
-      <c r="E11" s="30">
-        <v>0</v>
-      </c>
-      <c r="F11" s="30">
-        <v>0</v>
-      </c>
-      <c r="G11" s="30">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30">
-        <v>0</v>
-      </c>
-      <c r="I11" s="30">
-        <v>0</v>
-      </c>
-      <c r="J11" s="30">
-        <v>0</v>
-      </c>
-      <c r="K11" s="30">
-        <v>0</v>
-      </c>
-      <c r="L11" s="31" t="str">
+      <c r="C11" s="19">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33" t="str">
+      <c r="M11" s="21"/>
+      <c r="N11" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O11" s="33" t="str">
+      <c r="O11" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P11" s="33" t="str">
+      <c r="P11" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q11" s="34" t="str">
+      <c r="Q11" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R11" s="34" t="str">
+      <c r="R11" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S11" s="34" t="str">
+      <c r="S11" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T11" s="35" t="str">
+      <c r="T11" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U11" s="35" t="str">
+      <c r="U11" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V11" s="35" t="str">
+      <c r="V11" s="24" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y11" s="36" t="str">
+      <c r="Y11" s="25" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB11" s="36" t="str">
+      <c r="AB11" s="25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE11" s="36" t="str">
+      <c r="AE11" s="25" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="30">
-        <v>0</v>
-      </c>
-      <c r="D12" s="30">
-        <v>0</v>
-      </c>
-      <c r="E12" s="30">
-        <v>0</v>
-      </c>
-      <c r="F12" s="30">
-        <v>0</v>
-      </c>
-      <c r="G12" s="30">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30">
-        <v>0</v>
-      </c>
-      <c r="I12" s="30">
-        <v>0</v>
-      </c>
-      <c r="J12" s="30">
-        <v>0</v>
-      </c>
-      <c r="K12" s="30">
-        <v>0</v>
-      </c>
-      <c r="L12" s="31" t="str">
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33" t="str">
+      <c r="M12" s="21"/>
+      <c r="N12" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O12" s="33" t="str">
+      <c r="O12" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P12" s="33" t="str">
+      <c r="P12" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q12" s="34" t="str">
+      <c r="Q12" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R12" s="34" t="str">
+      <c r="R12" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S12" s="34" t="str">
+      <c r="S12" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T12" s="35" t="str">
+      <c r="T12" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U12" s="35" t="str">
+      <c r="U12" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V12" s="35" t="str">
+      <c r="V12" s="24" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y12" s="36" t="str">
+      <c r="Y12" s="25" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB12" s="36" t="str">
+      <c r="AB12" s="25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE12" s="36" t="str">
+      <c r="AE12" s="25" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="30">
-        <v>0</v>
-      </c>
-      <c r="D13" s="30">
-        <v>0</v>
-      </c>
-      <c r="E13" s="30">
-        <v>0</v>
-      </c>
-      <c r="F13" s="30">
-        <v>0</v>
-      </c>
-      <c r="G13" s="30">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30">
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
-        <v>0</v>
-      </c>
-      <c r="J13" s="30">
-        <v>0</v>
-      </c>
-      <c r="K13" s="30">
-        <v>0</v>
-      </c>
-      <c r="L13" s="31" t="str">
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="33" t="str">
+      <c r="M13" s="21"/>
+      <c r="N13" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O13" s="33" t="str">
+      <c r="O13" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P13" s="33" t="str">
+      <c r="P13" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q13" s="34" t="str">
+      <c r="Q13" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R13" s="34" t="str">
+      <c r="R13" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S13" s="34" t="str">
+      <c r="S13" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T13" s="35" t="str">
+      <c r="T13" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U13" s="35" t="str">
+      <c r="U13" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V13" s="35" t="str">
+      <c r="V13" s="24" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y13" s="36" t="str">
+      <c r="Y13" s="25" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB13" s="36" t="str">
+      <c r="AB13" s="25" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE13" s="36" t="str">
+      <c r="AE13" s="25" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:62" ht="18">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="27">
         <f>SUM(C7:C13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="28">
         <f>IF(C14=0,0,ROUND(SUMPRODUCT(C7:C13,D7:D13)/C14,2))</f>
         <v>0</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="29">
         <f>IF(C14=0,0,ROUND(SUMPRODUCT(C7:C13,E7:E13)/C14,2))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="29">
         <f>SUM(F7:F13)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="29">
         <f>IF(F14=0,0,ROUND(SUMPRODUCT(F7:F13,G7:G13)/F14,2))</f>
         <v>0</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="29">
         <f>IF(F14=0,0,ROUND(SUMPRODUCT(F7:F13,H7:H13)/F14,2))</f>
         <v>0</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="30">
         <f>SUM(I7:I13)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="30">
         <f>IF(I14=0,0,ROUND(SUMPRODUCT(I7:I13,J7:J13)/I14,2))</f>
         <v>0</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="30">
         <f>IF(I14=0,0,ROUND(SUMPRODUCT(I7:I13,K7:K13)/I14,2))</f>
         <v>0</v>
       </c>
-      <c r="L14" s="31" t="str">
+      <c r="L14" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="33" t="str">
+      <c r="M14" s="21"/>
+      <c r="N14" s="22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O14" s="33" t="str">
+      <c r="O14" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P14" s="33" t="str">
+      <c r="P14" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q14" s="34" t="str">
+      <c r="Q14" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="R14" s="34" t="str">
+      <c r="R14" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="S14" s="34" t="str">
+      <c r="S14" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T14" s="35" t="str">
+      <c r="T14" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U14" s="35" t="str">
+      <c r="U14" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V14" s="35" t="str">
+      <c r="V14" s="24" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="X14" s="42" t="str">
+      <c r="X14" s="31" t="str">
         <f>IF(N14="",IF(C14&lt;&gt;SUM(C7:C13),"109.12.8~110.9.23申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="Y14" s="43" t="str">
+      <c r="Y14" s="32" t="str">
         <f>IF(O14="",IF(D14&gt;65,"   109.12.8~110.9.23申請案件加權平均貸款成數最高為6.5成,",IF(C14=0,"",IF(D14&lt;&gt;ROUND(SUMPRODUCT(C7:C13,D7:D13)/C14,2),"109.12.8~110.9.23申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="Z14" s="42" t="str">
+      <c r="Z14" s="31" t="str">
         <f>IF(P14="",IF(C14=0,"",IF(E14&lt;&gt;ROUND(SUMPRODUCT(C7:C13,E7:E13)/C14,2),"109.12.8~110.9.23申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
-      <c r="AA14" s="42" t="str">
+      <c r="AA14" s="31" t="str">
         <f>IF(Q14="",IF(F14&lt;&gt;SUM(F7:F13),"110.9.24起申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AB14" s="43" t="str">
+      <c r="AB14" s="32" t="str">
         <f>IF(R14="",IF(G14&gt;60,"   110.9.24起申請案件加權平均貸款成數最高為6成,",IF(F14=0,"",IF(G14&lt;&gt;ROUND(SUMPRODUCT(F7:F13,G7:G13)/F14,2),"110.9.24起申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="AC14" s="42" t="str">
+      <c r="AC14" s="31" t="str">
         <f>IF(S14="",IF(F14=0,"",IF(H14&lt;&gt;ROUND(SUMPRODUCT(F7:F13,H7:H13)/F14,2),"110.9.24起申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
-      <c r="AD14" s="42" t="str">
+      <c r="AD14" s="31" t="str">
         <f>IF(T14="",IF(I14&lt;&gt;SUM(I7:I13),"110.12.17起申請案件[撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AE14" s="43" t="str">
+      <c r="AE14" s="32" t="str">
         <f>IF(U14="",IF(J14&gt;50,"   110.12.17起申請案件加權平均貸款成數最高為5成,",IF(I14=0,"",IF(J14&lt;&gt;ROUND(SUMPRODUCT(I7:I13,J7:J13)/I14,2),"110.12.17起申請案件[加權平均貸款成數]_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="AF14" s="42" t="str">
+      <c r="AF14" s="31" t="str">
         <f>IF(V14="",IF(I14=0,"",IF(K14&lt;&gt;ROUND(SUMPRODUCT(I7:I13,K7:K13)/I14,2),"110.12.17起申請案件[加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:62">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
     </row>
-    <row r="16" spans="1:62" ht="19.8">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:62" ht="19.5">
+      <c r="A16" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="45" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="45" t="s">
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
     </row>
-    <row r="17" spans="1:14" ht="19.8">
-      <c r="A17" s="45" t="s">
+    <row r="17" spans="1:14" ht="19.5">
+      <c r="A17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="45" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="45" t="s">
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
     </row>
-    <row r="18" spans="1:14" ht="19.8">
-      <c r="A18" s="45" t="s">
+    <row r="18" spans="1:14" ht="19.5">
+      <c r="A18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="45" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="45" t="s">
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
     </row>
-    <row r="20" spans="1:14" ht="16.2">
-      <c r="A20" s="49" t="s">
+    <row r="20" spans="1:14" ht="17">
+      <c r="A20" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.2">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:14" ht="17">
+      <c r="A21" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.2">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:14" ht="17">
+      <c r="A22" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="16.2">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:14" ht="17">
+      <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16.2">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:14" ht="17">
+      <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.2">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:14" ht="17">
+      <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="J18:K18"/>
@@ -4675,15 +4755,6 @@
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="T5:V5"/>
     <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
